--- a/inst/extdata/China fossil fuel imports from Russia.xlsx
+++ b/inst/extdata/China fossil fuel imports from Russia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1023A8-6908-44FE-B72A-0183E3B49CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FC1C56-CC89-4972-80B9-BA85814B6FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="4170" windowWidth="19245" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volume of Imports_ Steam Coal_ " sheetId="1" r:id="rId1"/>
@@ -496,11 +496,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N317"/>
+  <dimension ref="A1:N318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="N133" sqref="N133"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -14073,7 +14071,7 @@
         <v>7990369573</v>
       </c>
       <c r="N309" s="3">
-        <v>4434781947</v>
+        <v>4435069433</v>
       </c>
     </row>
     <row r="310" spans="1:14">
@@ -14093,7 +14091,7 @@
         <v>407891507</v>
       </c>
       <c r="F310" s="3">
-        <v>1304455215</v>
+        <v>1304502248</v>
       </c>
       <c r="G310" s="3">
         <v>6723980.4950000001</v>
@@ -14175,16 +14173,16 @@
         <v>522849283</v>
       </c>
       <c r="D312" s="3">
-        <v>2661180.15</v>
+        <v>2661186.15</v>
       </c>
       <c r="E312" s="3">
-        <v>536632722</v>
+        <v>548744915</v>
       </c>
       <c r="F312" s="3">
-        <v>1342507632</v>
+        <v>1351958301</v>
       </c>
       <c r="G312" s="3">
-        <v>8096566.2800000003</v>
+        <v>8094939.2800000003</v>
       </c>
       <c r="H312" s="3">
         <v>1859182986</v>
@@ -14202,10 +14200,10 @@
         <v>569366499</v>
       </c>
       <c r="M312" s="3">
-        <v>7113542261</v>
+        <v>7113527034</v>
       </c>
       <c r="N312" s="3">
-        <v>3808382571</v>
+        <v>3808631377</v>
       </c>
     </row>
     <row r="313" spans="1:14">
@@ -14216,16 +14214,16 @@
         <v>5046637.909</v>
       </c>
       <c r="C313" s="3">
-        <v>651723991</v>
+        <v>651577515</v>
       </c>
       <c r="D313" s="3">
         <v>1938657.655</v>
       </c>
       <c r="E313" s="3">
-        <v>318940160</v>
+        <v>326958493</v>
       </c>
       <c r="F313" s="3">
-        <v>1259206368</v>
+        <v>1264797630</v>
       </c>
       <c r="G313" s="3">
         <v>8834120.6510000005</v>
@@ -14246,10 +14244,10 @@
         <v>480749492</v>
       </c>
       <c r="M313" s="3">
-        <v>9704465632</v>
+        <v>9704941718</v>
       </c>
       <c r="N313" s="3">
-        <v>5208153407</v>
+        <v>5236543427</v>
       </c>
     </row>
     <row r="314" spans="1:14">
@@ -14257,10 +14255,10 @@
         <v>45107</v>
       </c>
       <c r="B314" s="3">
-        <v>5859862.9929999998</v>
+        <v>5859869.3159999996</v>
       </c>
       <c r="C314" s="3">
-        <v>674196190</v>
+        <v>674489383</v>
       </c>
       <c r="D314" s="3">
         <v>2190490.0619999999</v>
@@ -14269,10 +14267,10 @@
         <v>306082535</v>
       </c>
       <c r="F314" s="3">
-        <v>1313073927</v>
+        <v>1312333179</v>
       </c>
       <c r="G314" s="3">
-        <v>10578595.380999999</v>
+        <v>10578601.704</v>
       </c>
       <c r="H314" s="3">
         <v>1719373456</v>
@@ -14290,10 +14288,10 @@
         <v>573460106</v>
       </c>
       <c r="M314" s="3">
-        <v>10496347498</v>
+        <v>10494611056</v>
       </c>
       <c r="N314" s="3">
-        <v>5348842641</v>
+        <v>5440141791</v>
       </c>
     </row>
     <row r="315" spans="1:14">
@@ -14304,19 +14302,19 @@
         <v>5653999.9170000004</v>
       </c>
       <c r="C315" s="3">
-        <v>565940465</v>
+        <v>566165780</v>
       </c>
       <c r="D315" s="3">
-        <v>1606201.2379999999</v>
+        <v>1606198.2379999999</v>
       </c>
       <c r="E315" s="3">
         <v>206053515</v>
       </c>
       <c r="F315" s="3">
-        <v>965822922</v>
+        <v>965844764</v>
       </c>
       <c r="G315" s="3">
-        <v>8992100.9100000001</v>
+        <v>8992095.9100000001</v>
       </c>
       <c r="H315" s="3">
         <v>1735534658</v>
@@ -14325,7 +14323,7 @@
         <v>579942483</v>
       </c>
       <c r="J315" s="3">
-        <v>3159146504</v>
+        <v>3158673521</v>
       </c>
       <c r="K315" s="3">
         <v>0</v>
@@ -14334,10 +14332,10 @@
         <v>555570230</v>
       </c>
       <c r="M315" s="3">
-        <v>8062985719</v>
+        <v>8060805898</v>
       </c>
       <c r="N315" s="3">
-        <v>4143635644</v>
+        <v>4235774952</v>
       </c>
     </row>
     <row r="316" spans="1:14">
@@ -14345,10 +14343,10 @@
         <v>45169</v>
       </c>
       <c r="B316" s="3">
-        <v>5875435.5669999998</v>
+        <v>5875463.5669999998</v>
       </c>
       <c r="C316" s="3">
-        <v>549965909</v>
+        <v>550317979</v>
       </c>
       <c r="D316" s="3">
         <v>2260979.66</v>
@@ -14357,10 +14355,10 @@
         <v>308990987</v>
       </c>
       <c r="F316" s="3">
-        <v>1070269447</v>
+        <v>1071463036</v>
       </c>
       <c r="G316" s="3">
-        <v>9964051.9570000004</v>
+        <v>9964079.9570000004</v>
       </c>
       <c r="H316" s="3">
         <v>1672077825</v>
@@ -14369,7 +14367,7 @@
         <v>996091542</v>
       </c>
       <c r="J316" s="3">
-        <v>3489958871</v>
+        <v>3493119776</v>
       </c>
       <c r="K316" s="3">
         <v>0</v>
@@ -14378,10 +14376,10 @@
         <v>519326596</v>
       </c>
       <c r="M316" s="3">
-        <v>10542434472</v>
+        <v>10542126157</v>
       </c>
       <c r="N316" s="3">
-        <v>5880208383</v>
+        <v>5927406079</v>
       </c>
     </row>
     <row r="317" spans="1:14">
@@ -14389,10 +14387,10 @@
         <v>45199</v>
       </c>
       <c r="B317" s="3">
-        <v>5158355.5769999996</v>
+        <v>5158361.3059999999</v>
       </c>
       <c r="C317" s="3">
-        <v>493530526</v>
+        <v>493471794</v>
       </c>
       <c r="D317" s="3">
         <v>2593896.75</v>
@@ -14401,19 +14399,19 @@
         <v>362294551</v>
       </c>
       <c r="F317" s="3">
-        <v>1011631908</v>
+        <v>1011573177</v>
       </c>
       <c r="G317" s="3">
-        <v>9169476.5250000004</v>
+        <v>9169482.2540000007</v>
       </c>
       <c r="H317" s="3">
         <v>1632915629</v>
       </c>
       <c r="I317" s="3">
-        <v>745770842</v>
+        <v>740737483</v>
       </c>
       <c r="J317" s="3">
-        <v>3185360491</v>
+        <v>3166429851</v>
       </c>
       <c r="K317" s="3">
         <v>0</v>
@@ -14422,10 +14420,54 @@
         <v>519747239</v>
       </c>
       <c r="M317" s="3">
-        <v>8737932351</v>
+        <v>8736686894</v>
       </c>
       <c r="N317" s="3">
-        <v>5320453669</v>
+        <v>5355215463</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14">
+      <c r="A318" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B318" s="3">
+        <v>3987272.7949999999</v>
+      </c>
+      <c r="C318" s="3">
+        <v>391735291</v>
+      </c>
+      <c r="D318" s="3">
+        <v>1993570.2</v>
+      </c>
+      <c r="E318" s="3">
+        <v>317217918</v>
+      </c>
+      <c r="F318" s="3">
+        <v>917859185</v>
+      </c>
+      <c r="G318" s="3">
+        <v>7629024.9450000003</v>
+      </c>
+      <c r="H318" s="3">
+        <v>1339100836</v>
+      </c>
+      <c r="I318" s="3">
+        <v>748596047</v>
+      </c>
+      <c r="J318" s="3">
+        <v>2926196325</v>
+      </c>
+      <c r="K318" s="3">
+        <v>0</v>
+      </c>
+      <c r="L318" s="3">
+        <v>386008355</v>
+      </c>
+      <c r="M318" s="3">
+        <v>8537029908</v>
+      </c>
+      <c r="N318" s="3">
+        <v>5451764643</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/China fossil fuel imports from Russia.xlsx
+++ b/inst/extdata/China fossil fuel imports from Russia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FC1C56-CC89-4972-80B9-BA85814B6FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFAD348-4196-4971-BAF6-2A5077A12D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,9 +200,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -240,7 +240,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -346,7 +346,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -488,7 +488,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -496,9 +496,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N318"/>
+  <dimension ref="A1:N319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -14082,7 +14082,7 @@
         <v>2859557.2659999998</v>
       </c>
       <c r="C310" s="3">
-        <v>515255800</v>
+        <v>515333853</v>
       </c>
       <c r="D310" s="3">
         <v>1988197.5</v>
@@ -14091,7 +14091,7 @@
         <v>407891507</v>
       </c>
       <c r="F310" s="3">
-        <v>1304502248</v>
+        <v>1304580301</v>
       </c>
       <c r="G310" s="3">
         <v>6723980.4950000001</v>
@@ -14132,10 +14132,10 @@
         <v>2282846.5299999998</v>
       </c>
       <c r="E311" s="3">
-        <v>458957757</v>
+        <v>457555753</v>
       </c>
       <c r="F311" s="3">
-        <v>1597753649</v>
+        <v>1596351645</v>
       </c>
       <c r="G311" s="3">
         <v>8830060.2550000008</v>
@@ -14170,7 +14170,7 @@
         <v>3754308.82</v>
       </c>
       <c r="C312" s="3">
-        <v>522849283</v>
+        <v>522968346</v>
       </c>
       <c r="D312" s="3">
         <v>2661186.15</v>
@@ -14179,7 +14179,7 @@
         <v>548744915</v>
       </c>
       <c r="F312" s="3">
-        <v>1351958301</v>
+        <v>1352077364</v>
       </c>
       <c r="G312" s="3">
         <v>8094939.2800000003</v>
@@ -14214,16 +14214,16 @@
         <v>5046637.909</v>
       </c>
       <c r="C313" s="3">
-        <v>651577515</v>
+        <v>651888954</v>
       </c>
       <c r="D313" s="3">
         <v>1938657.655</v>
       </c>
       <c r="E313" s="3">
-        <v>326958493</v>
+        <v>327531282</v>
       </c>
       <c r="F313" s="3">
-        <v>1264797630</v>
+        <v>1264499918</v>
       </c>
       <c r="G313" s="3">
         <v>8834120.6510000005</v>
@@ -14235,7 +14235,7 @@
         <v>889073429</v>
       </c>
       <c r="J313" s="3">
-        <v>3752865779</v>
+        <v>3765393226</v>
       </c>
       <c r="K313" s="3">
         <v>0</v>
@@ -14244,10 +14244,10 @@
         <v>480749492</v>
       </c>
       <c r="M313" s="3">
-        <v>9704941718</v>
+        <v>9704484829</v>
       </c>
       <c r="N313" s="3">
-        <v>5236543427</v>
+        <v>5238533428</v>
       </c>
     </row>
     <row r="314" spans="1:14">
@@ -14258,28 +14258,28 @@
         <v>5859869.3159999996</v>
       </c>
       <c r="C314" s="3">
-        <v>674489383</v>
+        <v>674576622</v>
       </c>
       <c r="D314" s="3">
         <v>2190490.0619999999</v>
       </c>
       <c r="E314" s="3">
-        <v>306082535</v>
+        <v>309166889</v>
       </c>
       <c r="F314" s="3">
-        <v>1312333179</v>
+        <v>1313629169</v>
       </c>
       <c r="G314" s="3">
         <v>10578601.704</v>
       </c>
       <c r="H314" s="3">
-        <v>1719373456</v>
+        <v>1720511696</v>
       </c>
       <c r="I314" s="3">
         <v>849815572</v>
       </c>
       <c r="J314" s="3">
-        <v>3300499615</v>
+        <v>3318624835</v>
       </c>
       <c r="K314" s="3">
         <v>0</v>
@@ -14288,10 +14288,10 @@
         <v>573460106</v>
       </c>
       <c r="M314" s="3">
-        <v>10494611056</v>
+        <v>10494579569</v>
       </c>
       <c r="N314" s="3">
-        <v>5440141791</v>
+        <v>5443068707</v>
       </c>
     </row>
     <row r="315" spans="1:14">
@@ -14302,28 +14302,28 @@
         <v>5653999.9170000004</v>
       </c>
       <c r="C315" s="3">
-        <v>566165780</v>
+        <v>567000588</v>
       </c>
       <c r="D315" s="3">
         <v>1606198.2379999999</v>
       </c>
       <c r="E315" s="3">
-        <v>206053515</v>
+        <v>205996832</v>
       </c>
       <c r="F315" s="3">
-        <v>965844764</v>
+        <v>963660677</v>
       </c>
       <c r="G315" s="3">
         <v>8992095.9100000001</v>
       </c>
       <c r="H315" s="3">
-        <v>1735534658</v>
+        <v>1736073818</v>
       </c>
       <c r="I315" s="3">
         <v>579942483</v>
       </c>
       <c r="J315" s="3">
-        <v>3158673521</v>
+        <v>3159790687</v>
       </c>
       <c r="K315" s="3">
         <v>0</v>
@@ -14332,10 +14332,10 @@
         <v>555570230</v>
       </c>
       <c r="M315" s="3">
-        <v>8060805898</v>
+        <v>8060784639</v>
       </c>
       <c r="N315" s="3">
-        <v>4235774952</v>
+        <v>4256627909</v>
       </c>
     </row>
     <row r="316" spans="1:14">
@@ -14346,28 +14346,28 @@
         <v>5875463.5669999998</v>
       </c>
       <c r="C316" s="3">
-        <v>550317979</v>
+        <v>551572942</v>
       </c>
       <c r="D316" s="3">
-        <v>2260979.66</v>
+        <v>2260977.66</v>
       </c>
       <c r="E316" s="3">
-        <v>308990987</v>
+        <v>309029609</v>
       </c>
       <c r="F316" s="3">
-        <v>1071463036</v>
+        <v>1073573178</v>
       </c>
       <c r="G316" s="3">
-        <v>9964079.9570000004</v>
+        <v>9964077.9570000004</v>
       </c>
       <c r="H316" s="3">
-        <v>1672077825</v>
+        <v>1672375204</v>
       </c>
       <c r="I316" s="3">
-        <v>996091542</v>
+        <v>994273631</v>
       </c>
       <c r="J316" s="3">
-        <v>3493119776</v>
+        <v>3504986409</v>
       </c>
       <c r="K316" s="3">
         <v>0</v>
@@ -14376,10 +14376,10 @@
         <v>519326596</v>
       </c>
       <c r="M316" s="3">
-        <v>10542126157</v>
+        <v>10541981341</v>
       </c>
       <c r="N316" s="3">
-        <v>5927406079</v>
+        <v>5976587626</v>
       </c>
     </row>
     <row r="317" spans="1:14">
@@ -14387,10 +14387,10 @@
         <v>45199</v>
       </c>
       <c r="B317" s="3">
-        <v>5158361.3059999999</v>
+        <v>5157982.3219999997</v>
       </c>
       <c r="C317" s="3">
-        <v>493471794</v>
+        <v>494244237</v>
       </c>
       <c r="D317" s="3">
         <v>2593896.75</v>
@@ -14399,19 +14399,19 @@
         <v>362294551</v>
       </c>
       <c r="F317" s="3">
-        <v>1011573177</v>
+        <v>1013622977</v>
       </c>
       <c r="G317" s="3">
-        <v>9169482.2540000007</v>
+        <v>9169111.2699999996</v>
       </c>
       <c r="H317" s="3">
         <v>1632915629</v>
       </c>
       <c r="I317" s="3">
-        <v>740737483</v>
+        <v>739527432</v>
       </c>
       <c r="J317" s="3">
-        <v>3166429851</v>
+        <v>3155278329</v>
       </c>
       <c r="K317" s="3">
         <v>0</v>
@@ -14420,10 +14420,10 @@
         <v>519747239</v>
       </c>
       <c r="M317" s="3">
-        <v>8736686894</v>
+        <v>8735926543</v>
       </c>
       <c r="N317" s="3">
-        <v>5355215463</v>
+        <v>5396952222</v>
       </c>
     </row>
     <row r="318" spans="1:14">
@@ -14431,31 +14431,31 @@
         <v>45230</v>
       </c>
       <c r="B318" s="3">
-        <v>3987272.7949999999</v>
+        <v>4149465.7949999999</v>
       </c>
       <c r="C318" s="3">
-        <v>391735291</v>
+        <v>409706378</v>
       </c>
       <c r="D318" s="3">
-        <v>1993570.2</v>
+        <v>1831562.2</v>
       </c>
       <c r="E318" s="3">
-        <v>317217918</v>
+        <v>302270294</v>
       </c>
       <c r="F318" s="3">
-        <v>917859185</v>
+        <v>922192760</v>
       </c>
       <c r="G318" s="3">
-        <v>7629024.9450000003</v>
+        <v>7628481.9850000003</v>
       </c>
       <c r="H318" s="3">
         <v>1339100836</v>
       </c>
       <c r="I318" s="3">
-        <v>748596047</v>
+        <v>739594629</v>
       </c>
       <c r="J318" s="3">
-        <v>2926196325</v>
+        <v>2914508827</v>
       </c>
       <c r="K318" s="3">
         <v>0</v>
@@ -14464,10 +14464,54 @@
         <v>386008355</v>
       </c>
       <c r="M318" s="3">
-        <v>8537029908</v>
+        <v>8535444969</v>
       </c>
       <c r="N318" s="3">
-        <v>5451764643</v>
+        <v>5502769679</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14">
+      <c r="A319" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B319" s="3">
+        <v>3636590.29</v>
+      </c>
+      <c r="C319" s="3">
+        <v>412033504</v>
+      </c>
+      <c r="D319" s="3">
+        <v>1923657.9650000001</v>
+      </c>
+      <c r="E319" s="3">
+        <v>311795252</v>
+      </c>
+      <c r="F319" s="3">
+        <v>953995002</v>
+      </c>
+      <c r="G319" s="3">
+        <v>7306207.9579999996</v>
+      </c>
+      <c r="H319" s="3">
+        <v>1565388170</v>
+      </c>
+      <c r="I319" s="3">
+        <v>621473716</v>
+      </c>
+      <c r="J319" s="3">
+        <v>4217387112</v>
+      </c>
+      <c r="K319" s="3">
+        <v>0</v>
+      </c>
+      <c r="L319" s="3">
+        <v>518947875</v>
+      </c>
+      <c r="M319" s="3">
+        <v>9000809208</v>
+      </c>
+      <c r="N319" s="3">
+        <v>5537189413</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/China fossil fuel imports from Russia.xlsx
+++ b/inst/extdata/China fossil fuel imports from Russia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFAD348-4196-4971-BAF6-2A5077A12D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7E1E41-4F4C-43C4-8A68-9DC96D61791A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volume of Imports_ Steam Coal_ " sheetId="1" r:id="rId1"/>
@@ -496,9 +496,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N319"/>
+  <dimension ref="A1:N320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="F315" sqref="F315"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -14112,7 +14114,7 @@
         <v>648165872</v>
       </c>
       <c r="M310" s="3">
-        <v>7682835020</v>
+        <v>7682555619</v>
       </c>
       <c r="N310" s="3">
         <v>4237784928</v>
@@ -14126,7 +14128,7 @@
         <v>4374953.165</v>
       </c>
       <c r="C311" s="3">
-        <v>714223110</v>
+        <v>714230766</v>
       </c>
       <c r="D311" s="3">
         <v>2282846.5299999998</v>
@@ -14135,7 +14137,7 @@
         <v>457555753</v>
       </c>
       <c r="F311" s="3">
-        <v>1596351645</v>
+        <v>1596359301</v>
       </c>
       <c r="G311" s="3">
         <v>8830060.2550000008</v>
@@ -14159,7 +14161,7 @@
         <v>9606059137</v>
       </c>
       <c r="N311" s="3">
-        <v>5185182200</v>
+        <v>5185216488</v>
       </c>
     </row>
     <row r="312" spans="1:14">
@@ -14179,7 +14181,7 @@
         <v>548744915</v>
       </c>
       <c r="F312" s="3">
-        <v>1352077364</v>
+        <v>1352156465</v>
       </c>
       <c r="G312" s="3">
         <v>8094939.2800000003</v>
@@ -14211,22 +14213,22 @@
         <v>45077</v>
       </c>
       <c r="B313" s="3">
-        <v>5046637.909</v>
+        <v>5046632.909</v>
       </c>
       <c r="C313" s="3">
         <v>651888954</v>
       </c>
       <c r="D313" s="3">
-        <v>1938657.655</v>
+        <v>1938654.655</v>
       </c>
       <c r="E313" s="3">
         <v>327531282</v>
       </c>
       <c r="F313" s="3">
-        <v>1264499918</v>
+        <v>1261028485</v>
       </c>
       <c r="G313" s="3">
-        <v>8834120.6510000005</v>
+        <v>8834112.6510000005</v>
       </c>
       <c r="H313" s="3">
         <v>1635691161</v>
@@ -14235,7 +14237,7 @@
         <v>889073429</v>
       </c>
       <c r="J313" s="3">
-        <v>3765393226</v>
+        <v>3766131348</v>
       </c>
       <c r="K313" s="3">
         <v>0</v>
@@ -14244,7 +14246,7 @@
         <v>480749492</v>
       </c>
       <c r="M313" s="3">
-        <v>9704484829</v>
+        <v>9704129565</v>
       </c>
       <c r="N313" s="3">
         <v>5238533428</v>
@@ -14258,16 +14260,16 @@
         <v>5859869.3159999996</v>
       </c>
       <c r="C314" s="3">
-        <v>674576622</v>
+        <v>674810327</v>
       </c>
       <c r="D314" s="3">
         <v>2190490.0619999999</v>
       </c>
       <c r="E314" s="3">
-        <v>309166889</v>
+        <v>311925456</v>
       </c>
       <c r="F314" s="3">
-        <v>1313629169</v>
+        <v>1310571591</v>
       </c>
       <c r="G314" s="3">
         <v>10578601.704</v>
@@ -14279,7 +14281,7 @@
         <v>849815572</v>
       </c>
       <c r="J314" s="3">
-        <v>3318624835</v>
+        <v>3320507486</v>
       </c>
       <c r="K314" s="3">
         <v>0</v>
@@ -14288,10 +14290,10 @@
         <v>573460106</v>
       </c>
       <c r="M314" s="3">
-        <v>10494579569</v>
+        <v>10493989499</v>
       </c>
       <c r="N314" s="3">
-        <v>5443068707</v>
+        <v>5443481794</v>
       </c>
     </row>
     <row r="315" spans="1:14">
@@ -14299,19 +14301,19 @@
         <v>45138</v>
       </c>
       <c r="B315" s="3">
-        <v>5653999.9170000004</v>
+        <v>5724999.9170000004</v>
       </c>
       <c r="C315" s="3">
-        <v>567000588</v>
+        <v>573025675</v>
       </c>
       <c r="D315" s="3">
         <v>1606198.2379999999</v>
       </c>
       <c r="E315" s="3">
-        <v>205996832</v>
+        <v>212038070</v>
       </c>
       <c r="F315" s="3">
-        <v>963660677</v>
+        <v>968573703</v>
       </c>
       <c r="G315" s="3">
         <v>8992095.9100000001</v>
@@ -14323,7 +14325,7 @@
         <v>579942483</v>
       </c>
       <c r="J315" s="3">
-        <v>3159790687</v>
+        <v>3159828252</v>
       </c>
       <c r="K315" s="3">
         <v>0</v>
@@ -14332,10 +14334,10 @@
         <v>555570230</v>
       </c>
       <c r="M315" s="3">
-        <v>8060784639</v>
+        <v>8060767087</v>
       </c>
       <c r="N315" s="3">
-        <v>4256627909</v>
+        <v>4261482288</v>
       </c>
     </row>
     <row r="316" spans="1:14">
@@ -14343,31 +14345,31 @@
         <v>45169</v>
       </c>
       <c r="B316" s="3">
-        <v>5875463.5669999998</v>
+        <v>5875458.4680000003</v>
       </c>
       <c r="C316" s="3">
-        <v>551572942</v>
+        <v>551225013</v>
       </c>
       <c r="D316" s="3">
-        <v>2260977.66</v>
+        <v>2260972.16</v>
       </c>
       <c r="E316" s="3">
-        <v>309029609</v>
+        <v>310355173</v>
       </c>
       <c r="F316" s="3">
-        <v>1073573178</v>
+        <v>1075430990</v>
       </c>
       <c r="G316" s="3">
-        <v>9964077.9570000004</v>
+        <v>9964067.3579999991</v>
       </c>
       <c r="H316" s="3">
         <v>1672375204</v>
       </c>
       <c r="I316" s="3">
-        <v>994273631</v>
+        <v>992845331</v>
       </c>
       <c r="J316" s="3">
-        <v>3504986409</v>
+        <v>3505698584</v>
       </c>
       <c r="K316" s="3">
         <v>0</v>
@@ -14376,10 +14378,10 @@
         <v>519326596</v>
       </c>
       <c r="M316" s="3">
-        <v>10541981341</v>
+        <v>10541721938</v>
       </c>
       <c r="N316" s="3">
-        <v>5976587626</v>
+        <v>6004367341</v>
       </c>
     </row>
     <row r="317" spans="1:14">
@@ -14390,16 +14392,16 @@
         <v>5157982.3219999997</v>
       </c>
       <c r="C317" s="3">
-        <v>494244237</v>
+        <v>494555109</v>
       </c>
       <c r="D317" s="3">
         <v>2593896.75</v>
       </c>
       <c r="E317" s="3">
-        <v>362294551</v>
+        <v>362312257</v>
       </c>
       <c r="F317" s="3">
-        <v>1013622977</v>
+        <v>1015558695</v>
       </c>
       <c r="G317" s="3">
         <v>9169111.2699999996</v>
@@ -14411,7 +14413,7 @@
         <v>739527432</v>
       </c>
       <c r="J317" s="3">
-        <v>3155278329</v>
+        <v>3153792997</v>
       </c>
       <c r="K317" s="3">
         <v>0</v>
@@ -14420,10 +14422,10 @@
         <v>519747239</v>
       </c>
       <c r="M317" s="3">
-        <v>8735926543</v>
+        <v>8736032161</v>
       </c>
       <c r="N317" s="3">
-        <v>5396952222</v>
+        <v>5426633373</v>
       </c>
     </row>
     <row r="318" spans="1:14">
@@ -14431,22 +14433,22 @@
         <v>45230</v>
       </c>
       <c r="B318" s="3">
-        <v>4149465.7949999999</v>
+        <v>4149185.7949999999</v>
       </c>
       <c r="C318" s="3">
-        <v>409706378</v>
+        <v>409639067</v>
       </c>
       <c r="D318" s="3">
         <v>1831562.2</v>
       </c>
       <c r="E318" s="3">
-        <v>302270294</v>
+        <v>302658775</v>
       </c>
       <c r="F318" s="3">
-        <v>922192760</v>
+        <v>923702341</v>
       </c>
       <c r="G318" s="3">
-        <v>7628481.9850000003</v>
+        <v>7628201.9850000003</v>
       </c>
       <c r="H318" s="3">
         <v>1339100836</v>
@@ -14455,7 +14457,7 @@
         <v>739594629</v>
       </c>
       <c r="J318" s="3">
-        <v>2914508827</v>
+        <v>2911655881</v>
       </c>
       <c r="K318" s="3">
         <v>0</v>
@@ -14464,10 +14466,10 @@
         <v>386008355</v>
       </c>
       <c r="M318" s="3">
-        <v>8535444969</v>
+        <v>8534782775</v>
       </c>
       <c r="N318" s="3">
-        <v>5502769679</v>
+        <v>5533272637</v>
       </c>
     </row>
     <row r="319" spans="1:14">
@@ -14475,31 +14477,31 @@
         <v>45260</v>
       </c>
       <c r="B319" s="3">
-        <v>3636590.29</v>
+        <v>3636675.89</v>
       </c>
       <c r="C319" s="3">
-        <v>412033504</v>
+        <v>411866953</v>
       </c>
       <c r="D319" s="3">
-        <v>1923657.9650000001</v>
+        <v>1923696.9650000001</v>
       </c>
       <c r="E319" s="3">
-        <v>311795252</v>
+        <v>313966609</v>
       </c>
       <c r="F319" s="3">
-        <v>953995002</v>
+        <v>958762597</v>
       </c>
       <c r="G319" s="3">
-        <v>7306207.9579999996</v>
+        <v>7306332.5580000002</v>
       </c>
       <c r="H319" s="3">
         <v>1565388170</v>
       </c>
       <c r="I319" s="3">
-        <v>621473716</v>
+        <v>609571153</v>
       </c>
       <c r="J319" s="3">
-        <v>4217387112</v>
+        <v>4187667201</v>
       </c>
       <c r="K319" s="3">
         <v>0</v>
@@ -14508,10 +14510,54 @@
         <v>518947875</v>
       </c>
       <c r="M319" s="3">
-        <v>9000809208</v>
+        <v>8999568903</v>
       </c>
       <c r="N319" s="3">
-        <v>5537189413</v>
+        <v>5545020618</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14">
+      <c r="A320" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B320" s="3">
+        <v>3389292.7050000001</v>
+      </c>
+      <c r="C320" s="3">
+        <v>373722796</v>
+      </c>
+      <c r="D320" s="3">
+        <v>2425503.2000000002</v>
+      </c>
+      <c r="E320" s="3">
+        <v>423520291</v>
+      </c>
+      <c r="F320" s="3">
+        <v>1042735863</v>
+      </c>
+      <c r="G320" s="3">
+        <v>7592889.1310000001</v>
+      </c>
+      <c r="H320" s="3">
+        <v>1607432321</v>
+      </c>
+      <c r="I320" s="3">
+        <v>519221118</v>
+      </c>
+      <c r="J320" s="3">
+        <v>5851319211</v>
+      </c>
+      <c r="K320" s="3">
+        <v>0</v>
+      </c>
+      <c r="L320" s="3">
+        <v>549402142</v>
+      </c>
+      <c r="M320" s="3">
+        <v>9561014006</v>
+      </c>
+      <c r="N320" s="3">
+        <v>5525313310</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/China fossil fuel imports from Russia.xlsx
+++ b/inst/extdata/China fossil fuel imports from Russia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B521D7EC-0B11-4B0D-A394-44C4375C1485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506D4CC2-7D7E-49FC-9A31-821555FE868B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volume of Imports_ Steam Coal_ " sheetId="1" r:id="rId1"/>
@@ -412,7 +412,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>

--- a/inst/extdata/China fossil fuel imports from Russia.xlsx
+++ b/inst/extdata/China fossil fuel imports from Russia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506D4CC2-7D7E-49FC-9A31-821555FE868B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE70F39A-5B46-4901-B304-DD0449470FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,7 +412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/inst/extdata/China fossil fuel imports from Russia.xlsx
+++ b/inst/extdata/China fossil fuel imports from Russia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120CD092-AB28-4C1F-8AB3-2CF404F743D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D85AC06-3852-4C1C-B506-8F2D932A0165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Volume of Imports_Coal_Ru" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
             <sz val="9"/>
             <rFont val="宋体"/>
           </rPr>
-          <t>UEsDBBQACAgIAKhhCFkAAAAAAAAAAAAAAAABAAAAML2YXW/URhSGue6vWPkKpIw0M56xZ3wHCaG0KSASelGEqvHM8WLFa2/9URGhSHyKirbQCkovaFW1RYhe0CIuUCtB+TNsQv5Fx7ubhZKQNcJJpE3i4/HM8fMen3m9h+cO7ftg37595x0418/ycjZLo7jrBOcdA5GqknJBpd1KdcEJHEidGcfERT9RK59kpg6Z3tHUxFqVcVafjIuDhXaCMq+gPvgwNnAoUenyZqgqYKFKVe4EkUoKWJ0Zr7oUlwkc7w9nsUurJBlGDifQg7QsxsNnHJ1VaZmvbE5noNB5PL5sFIpy+KKCVE/G2BTSMo5iyDcjher1E5jMWUACugQzXPFjWFmIi9IJTk/WmnFyKMosh2OqB85oBfunSuPSqTMydbDIqlzX/1R9o0qYsx/nzCQ8XrhUYTKaZXPtepJiAufVpcOIpdODMo8t0NPnnc/tSTUXd4cX0BknhG6cjgY7FGOGmYvrfM5aveAk6Cw39roz4wwDZ5ET7GLG7RhIR0k4s2fjVAWdT7Ok6kEnizpHe7UaRdCZzVQSdE5WRRGrtDMPBvJNjSE9Vd964JSjw3N9lRowk3uCc2WudLmkuq9r4gRsxunmWdUfnhiPXQark0OAEtcPJQJgAjFqOBLgaqRCEirQxGhSp52Okn7x98PB3WfBy+d3Bzd/X/vh0ca1m8H61Xvrlx4GL55fWX/249qdv15evL1x6X4weHZr7aevBhee2qv7KreFcNTmiSeK/k8HO/XguwfO6sxU1hz7LpnKmjC3KevlOO3uLXJXGylCYIhrFiGGhY+EkC5yuXbDyOeeCachv/R0/cp9C36vqDescEmaUV8sQfX2FjoTDCuFDWKRoIhJA0gaQ5AnMHU9Rb0w0jtDH1x/MLh+d6+gEyn5dOiMSls+DUs9rwx0jsdTmS9320FOiWdLmhHEpSsR87lBwuUYhYwYbtuOH6opdT648cva43/en/e3lwdXv25Q50QSOrW7cOL5DZGfiPuQxCl0ZlWex2A6x1RZ5SrpHFFFZ7/9BVlV2KfBrn9gr1RxPeDUwwJhjyjElBVEEB+QyzxXKmM0o9GU7vPnrxsXbw3u/bF+5cnao9v77WftwsXJ8YGGekkpKKEtiIYxmSoaEdzzmom2EH9R1Z7lDbUWjh3ZM40i26hczAWKmGd3CKMBCU40ogKUCEOhiJA7a7T25PHgmzsTTfbwEZqqxkfSI6705HuosZ/6xP5gPFFkd/YMopnVwaBQRAQxjbndMzRFUgjFNdGahFP2jDdkeC3viSC7tGUTjt2ddfiM+9RnfkOjtHDiyK6yVuCaSNpCZ9r6IebajiT8KEI0FMAw96Tvws6s6wx3myr2MaViuhHieDuqKqne3emfWpxrh7AveWR9j0Fc+LIm7CH7JGLkUyDathcuFX0L4Y1r32/89nNbTn/93xuDq5eb0PYIaWA7CRMNaTf2+q1BB98afWx7hh+BbSGYSxQaa4lcQqOQC2OwVFOgt+b134E7lo3s/rY76hbuzd1+a9ix5hR7rkAypLbWNbcvtIJwFCmPY2L7uuFTsLfn9htib2z4Cdl269xa7k39fmvUa18fhdq274h7iIEUSBktkQThmUhHRrG3WctN6u0Y/saV3tjwN0Pept9vTRURYgJEMRRZL4OYiChSWmKEJda+qwyo4Y62Uwtqx/C3oVdDr+9v+1XbFr3ew+q3Jg/hylXgW2U4t+9jLti3ZMooMsY1CrxIGNffWZ62vf6mGhZqGfdgPrdLL0JZ2s2z/oJYnwW9bFnGr+46UUV5PKwFY6ODpZV+nW1SRyH/ckivsMtnYTGfZ72hlnafkZiOgvaRyMuD5Zb4UjYK0XGoD3mcmfHs/XK+SpITw5CzuvofUEsHCNyJzqJ7BQAAThcAAA==</t>
+          <t>UEsDBBQACAgIAGlmJlkAAAAAAAAAAAAAAAABAAAAML2YXW/URhSGc91fsfIVSBlpZjxjz+wdJITSpoBI6EURqsYzxxsrXnvrj4oIReJTVLSFVlB6QauqLUL0ghZxgVoJyp9hE/IvOt7dLJSErBHORtokPp6Ps897fObdPTJ/eOaDmZmZ8w6c66VZMZcmYdRx2ucdA6Eq42JRJZ1SdcBpO5A4s46J8l6s1j5JTRUy3WOJibQqorS6GeWHcu20i6yE6uLDyMDhWCWr26Eyh8UyUZnTDlWcw/rsaNflqIjhRG+wit1axfEgciSGLiRFPho+6+i0TIpsbXs5A7nOotG0YSjM4IsSEj0eY1NIiiiMINuO5Krbi2G8Zg4x6ALMYMePYW0xygunfWa816yTQV6kGRxXXXCGO9g/ZRIVTpWRqYJ5Wma6+qfsGVXAvH05Z8fh0caFCuLhKtt7V4vkYzivpg4ilk4XiiyyQM+cdz63N9V81BlMoLNOAJ0oGQ52KMYMMxdX+axYveAU6DQzdt7ZUYZtZ4kT7GLG7RhIhkk4cytRotqtT9O47EIrDVvHupUaebs1l6q43TpV5nmkktYCGMi2NYbkdPXW204xvDzXU4kBM35PcK7IlC6WVed1TZw2m3U6WVr2BjdGY1fB6uQQoMT1A4kAmECMGo4EuBqpgAQKNDGaVGknw6Rf/P2wf/dZ++Xzu/2bv2/88Gjr2s325tV7m5cetl88v7L57MeNO3+9vHh769L9dv/ZrY2fvupfeGpn91RmC+GYzROPFf2fDnbp/ncPnPXZiaw59l0ykTVhbl3Wq1HSmS5yVxspAmCIaxYihoWPhJAucrl2g9DnngkmIb/0dPPKfQt+WtRrVrgk9agvFaC604XOBMNKYYNYKChi0gCSxhDkCUxdT1EvCPXe0PvXH/Sv350WdCIlnwydUWnLp2apZ6WB1oloIvPVTjPIKfFsSTOCuHQlYj43SLgco4ARw23b8QM1oc77N37ZePzP+/P+9nL/6tc16pxIQid2F048vybyk1EP4iiB1pzKsghM67gqykzFraMqbx2wvyAtc/s02P0PTksV1wNOPSwQ9ohCTFlBBPEBucxzpTJGMxpO6D5//rp18Vb/3h+bV55sPLp9wL42LlwcXx+sqZeUghLagGgYk4miEcE9r55oi9EXZeVZ3lBr8fjRqWkU2kblYi5QyDx7QhgNSHCiERWgRBAIRYTcW6ONJ4/739wZazLFR2iiGh9Jj7jSk++hxgHqE/uD8ViR/TkziGZWB4MCERLENOb2zNAUSSEU10RrEkw4M96Q4bW8x4Ls05FNOHb31uEz7lOf+TWN0uLJo/vKWoFrQmkLnWnrh5hrO5LwwxDRQADD3JO+C3uzrjLcb6rYx5SKyUaI492oqrh8d6d/emm+GcK+5KH1PQZx4cuKsIfsk4iRT4Fo2164VPQthLeufb/1289NOf3Nf2/0r16uQ9sjpIbtJEzUpF3b6zcGHXxr9LHtGX4ItoVgLlFgrCVyCQ0DLozBUk2A3pjXfwfuWNay+7ueqDu413f7jWHHmlPsuQLJgNpa19x+oBWEo1B5HBPb1w2fgL05t18Te23DT8iuR+fOcq/r9xujXvn6MNC2fYfcQwykQMpoiSQIz4Q6NIq9zVpuU2/G8Neu9NqGvx7yJv1+Y6qIABMgiqHQehnEREiR0hIjLLH2XWVADU60vVpQM4a/Cb1qen1/16/aduj1Hla/MXkIV64C3yrDuf085oL9lEwZRca4RoEXCuP6e8vTtNffVuNsNcKmn68sr/VgMKOIurCQ2VSWoCjsYVp9YaxXQK9attErCrHKixNBJSAbXgwXcOIqCtmXA5q5TScN8oUs7Q60teeOxHQYtI9IVhwqdsSX02GIjkI9yKLUjFbvFQtlHJ8chJz19f8AUEsHCJ+s6wuEBQAAXhcAAA==</t>
         </r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
   <si>
     <t>Country</t>
   </si>
@@ -188,10 +188,13 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-07-23</t>
+    <t>2024-08-22</t>
   </si>
   <si>
     <t>2022-01-29</t>
+  </si>
+  <si>
+    <t>2024-08-23</t>
   </si>
 </sst>
 </file>
@@ -612,11 +615,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O332"/>
+  <dimension ref="A1:O333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -947,7 +948,7 @@
         <v>43</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>43</v>
@@ -15928,7 +15929,7 @@
         <v>2936094.125</v>
       </c>
       <c r="E327" s="3">
-        <v>8618990796</v>
+        <v>8618398217</v>
       </c>
       <c r="F327" s="3">
         <v>0</v>
@@ -15943,16 +15944,16 @@
         <v>23716.192999999999</v>
       </c>
       <c r="J327" s="3">
-        <v>830842730</v>
+        <v>834712246</v>
       </c>
       <c r="K327" s="3">
-        <v>382002270</v>
+        <v>387210395</v>
       </c>
       <c r="L327" s="3">
-        <v>313554595</v>
+        <v>313165066</v>
       </c>
       <c r="M327" s="3">
-        <v>4855105077</v>
+        <v>4856251759</v>
       </c>
       <c r="N327" s="3">
         <v>613209694</v>
@@ -15975,7 +15976,7 @@
         <v>2298873.9300000002</v>
       </c>
       <c r="E328" s="3">
-        <v>9096630213</v>
+        <v>9095360378</v>
       </c>
       <c r="F328" s="3">
         <v>0</v>
@@ -15990,16 +15991,16 @@
         <v>27067.526999999998</v>
       </c>
       <c r="J328" s="3">
-        <v>698967400</v>
+        <v>698721759</v>
       </c>
       <c r="K328" s="3">
-        <v>328263714</v>
+        <v>328882521</v>
       </c>
       <c r="L328" s="3">
-        <v>231585006</v>
+        <v>230709405</v>
       </c>
       <c r="M328" s="3">
-        <v>5251764153</v>
+        <v>5278848071</v>
       </c>
       <c r="N328" s="3">
         <v>712987513</v>
@@ -16019,10 +16020,10 @@
         <v>2564319.89</v>
       </c>
       <c r="D329" s="3">
-        <v>2821513.0210000002</v>
+        <v>2824260.821</v>
       </c>
       <c r="E329" s="3">
-        <v>10806869289</v>
+        <v>10806607965</v>
       </c>
       <c r="F329" s="3">
         <v>0</v>
@@ -16037,16 +16038,16 @@
         <v>33933.849000000002</v>
       </c>
       <c r="J329" s="3">
-        <v>875777449</v>
+        <v>875681360</v>
       </c>
       <c r="K329" s="3">
-        <v>393975951</v>
+        <v>394343018</v>
       </c>
       <c r="L329" s="3">
-        <v>309399902</v>
+        <v>309221390</v>
       </c>
       <c r="M329" s="3">
-        <v>6513207518</v>
+        <v>6515688475</v>
       </c>
       <c r="N329" s="3">
         <v>668499959</v>
@@ -16069,7 +16070,7 @@
         <v>3924890.44</v>
       </c>
       <c r="E330" s="3">
-        <v>9259591012</v>
+        <v>9259119178</v>
       </c>
       <c r="F330" s="3">
         <v>0</v>
@@ -16084,16 +16085,16 @@
         <v>38641.328999999998</v>
       </c>
       <c r="J330" s="3">
-        <v>969158377</v>
+        <v>970745353</v>
       </c>
       <c r="K330" s="3">
-        <v>392668858</v>
+        <v>392783467</v>
       </c>
       <c r="L330" s="3">
-        <v>395427124</v>
+        <v>396539264</v>
       </c>
       <c r="M330" s="3">
-        <v>5761965080</v>
+        <v>5759218377</v>
       </c>
       <c r="N330" s="3">
         <v>529846850</v>
@@ -16107,16 +16108,16 @@
         <v>45443</v>
       </c>
       <c r="B331" s="3">
-        <v>8278758.6540000001</v>
+        <v>8278847.6540000001</v>
       </c>
       <c r="C331" s="3">
-        <v>2814267.449</v>
+        <v>2814273.449</v>
       </c>
       <c r="D331" s="3">
-        <v>3852024.8360000001</v>
+        <v>3852107.8360000001</v>
       </c>
       <c r="E331" s="3">
-        <v>8909222214</v>
+        <v>8908766026</v>
       </c>
       <c r="F331" s="3">
         <v>0</v>
@@ -16131,16 +16132,16 @@
         <v>35760.885999999999</v>
       </c>
       <c r="J331" s="3">
-        <v>949648024</v>
+        <v>950058463</v>
       </c>
       <c r="K331" s="3">
-        <v>393859230</v>
+        <v>393634741</v>
       </c>
       <c r="L331" s="3">
-        <v>368949694</v>
+        <v>369498965</v>
       </c>
       <c r="M331" s="3">
-        <v>5511125880</v>
+        <v>5519782960</v>
       </c>
       <c r="N331" s="3">
         <v>712991710</v>
@@ -16154,46 +16155,93 @@
         <v>45473</v>
       </c>
       <c r="B332" s="3">
-        <v>8478921.7819999997</v>
+        <v>8549578.7819999997</v>
       </c>
       <c r="C332" s="3">
-        <v>2595795.5019999999</v>
+        <v>2595801.5019999999</v>
       </c>
       <c r="D332" s="3">
-        <v>3997711.31</v>
+        <v>4068362.31</v>
       </c>
       <c r="E332" s="3">
-        <v>8431219374</v>
+        <v>8430839020</v>
       </c>
       <c r="F332" s="3">
         <v>0</v>
       </c>
       <c r="G332" s="3">
-        <v>663886221</v>
+        <v>661230547</v>
       </c>
       <c r="H332" s="3">
-        <v>663886.22100000002</v>
+        <v>661230.54700000002</v>
       </c>
       <c r="I332" s="3">
         <v>27762.346000000001</v>
       </c>
       <c r="J332" s="3">
-        <v>970411124</v>
+        <v>978568338</v>
       </c>
       <c r="K332" s="3">
-        <v>381502692</v>
+        <v>381492840</v>
       </c>
       <c r="L332" s="3">
-        <v>372547446</v>
+        <v>380714512</v>
       </c>
       <c r="M332" s="3">
-        <v>4914582972</v>
+        <v>4947709202</v>
       </c>
       <c r="N332" s="3">
         <v>737038203</v>
       </c>
       <c r="O332" s="3">
-        <v>377857001</v>
+        <v>376757745</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15">
+      <c r="A333" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B333" s="3">
+        <v>7599507.9850000003</v>
+      </c>
+      <c r="C333" s="3">
+        <v>2672980.0449999999</v>
+      </c>
+      <c r="D333" s="3">
+        <v>3197943.94</v>
+      </c>
+      <c r="E333" s="3">
+        <v>7458312668</v>
+      </c>
+      <c r="F333" s="3">
+        <v>0</v>
+      </c>
+      <c r="G333" s="3">
+        <v>677055997</v>
+      </c>
+      <c r="H333" s="3">
+        <v>677055.99699999997</v>
+      </c>
+      <c r="I333" s="3">
+        <v>37945.652999999998</v>
+      </c>
+      <c r="J333" s="3">
+        <v>885191760</v>
+      </c>
+      <c r="K333" s="3">
+        <v>388845483</v>
+      </c>
+      <c r="L333" s="3">
+        <v>311202110</v>
+      </c>
+      <c r="M333" s="3">
+        <v>4464041965</v>
+      </c>
+      <c r="N333" s="3">
+        <v>718030841</v>
+      </c>
+      <c r="O333" s="3">
+        <v>384284717</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/China fossil fuel imports from Russia.xlsx
+++ b/inst/extdata/China fossil fuel imports from Russia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D85AC06-3852-4C1C-B506-8F2D932A0165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4AEAD3-0E2D-4933-8898-74DF23919C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Volume of Imports_Coal_Ru" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="47">
   <si>
     <t>Country</t>
   </si>
@@ -188,13 +188,16 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-08-22</t>
-  </si>
-  <si>
     <t>2022-01-29</t>
   </si>
   <si>
     <t>2024-08-23</t>
+  </si>
+  <si>
+    <t>2024-09-28</t>
+  </si>
+  <si>
+    <t>2024-09-27</t>
   </si>
 </sst>
 </file>
@@ -615,26 +618,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O333"/>
+  <dimension ref="A1:O334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -927,46 +930,46 @@
         <v>42</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="K8" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -15920,10 +15923,10 @@
         <v>45322</v>
       </c>
       <c r="B327" s="3">
-        <v>6092431.233</v>
+        <v>6092430.6330000004</v>
       </c>
       <c r="C327" s="3">
-        <v>2134744.963</v>
+        <v>2134744.3629999999</v>
       </c>
       <c r="D327" s="3">
         <v>2936094.125</v>
@@ -15944,10 +15947,10 @@
         <v>23716.192999999999</v>
       </c>
       <c r="J327" s="3">
-        <v>834712246</v>
+        <v>834280990</v>
       </c>
       <c r="K327" s="3">
-        <v>387210395</v>
+        <v>386909505</v>
       </c>
       <c r="L327" s="3">
         <v>313165066</v>
@@ -15976,7 +15979,7 @@
         <v>2298873.9300000002</v>
       </c>
       <c r="E328" s="3">
-        <v>9095360378</v>
+        <v>9095464032</v>
       </c>
       <c r="F328" s="3">
         <v>0</v>
@@ -15991,16 +15994,16 @@
         <v>27067.526999999998</v>
       </c>
       <c r="J328" s="3">
-        <v>698721759</v>
+        <v>704814128</v>
       </c>
       <c r="K328" s="3">
-        <v>328882521</v>
+        <v>334983663</v>
       </c>
       <c r="L328" s="3">
         <v>230709405</v>
       </c>
       <c r="M328" s="3">
-        <v>5278848071</v>
+        <v>5299044682</v>
       </c>
       <c r="N328" s="3">
         <v>712987513</v>
@@ -16023,7 +16026,7 @@
         <v>2824260.821</v>
       </c>
       <c r="E329" s="3">
-        <v>10806607965</v>
+        <v>10804951037</v>
       </c>
       <c r="F329" s="3">
         <v>0</v>
@@ -16038,16 +16041,16 @@
         <v>33933.849000000002</v>
       </c>
       <c r="J329" s="3">
-        <v>875681360</v>
+        <v>878699109</v>
       </c>
       <c r="K329" s="3">
-        <v>394343018</v>
+        <v>398108769</v>
       </c>
       <c r="L329" s="3">
         <v>309221390</v>
       </c>
       <c r="M329" s="3">
-        <v>6515688475</v>
+        <v>6516391605</v>
       </c>
       <c r="N329" s="3">
         <v>668499959</v>
@@ -16070,7 +16073,7 @@
         <v>3924890.44</v>
       </c>
       <c r="E330" s="3">
-        <v>9259119178</v>
+        <v>9258592043</v>
       </c>
       <c r="F330" s="3">
         <v>0</v>
@@ -16085,16 +16088,16 @@
         <v>38641.328999999998</v>
       </c>
       <c r="J330" s="3">
-        <v>970745353</v>
+        <v>971910988</v>
       </c>
       <c r="K330" s="3">
-        <v>392783467</v>
+        <v>393219292</v>
       </c>
       <c r="L330" s="3">
-        <v>396539264</v>
+        <v>397324006</v>
       </c>
       <c r="M330" s="3">
-        <v>5759218377</v>
+        <v>5787799413</v>
       </c>
       <c r="N330" s="3">
         <v>529846850</v>
@@ -16117,7 +16120,7 @@
         <v>3852107.8360000001</v>
       </c>
       <c r="E331" s="3">
-        <v>8908766026</v>
+        <v>8908590223</v>
       </c>
       <c r="F331" s="3">
         <v>0</v>
@@ -16132,16 +16135,16 @@
         <v>35760.885999999999</v>
       </c>
       <c r="J331" s="3">
-        <v>950058463</v>
+        <v>951157441</v>
       </c>
       <c r="K331" s="3">
-        <v>393634741</v>
+        <v>393865554</v>
       </c>
       <c r="L331" s="3">
-        <v>369498965</v>
+        <v>369519973</v>
       </c>
       <c r="M331" s="3">
-        <v>5519782960</v>
+        <v>5533024853</v>
       </c>
       <c r="N331" s="3">
         <v>712991710</v>
@@ -16155,16 +16158,16 @@
         <v>45473</v>
       </c>
       <c r="B332" s="3">
-        <v>8549578.7819999997</v>
+        <v>8549513.7819999997</v>
       </c>
       <c r="C332" s="3">
-        <v>2595801.5019999999</v>
+        <v>2595725.5019999999</v>
       </c>
       <c r="D332" s="3">
-        <v>4068362.31</v>
+        <v>4068373.31</v>
       </c>
       <c r="E332" s="3">
-        <v>8430839020</v>
+        <v>8430778217</v>
       </c>
       <c r="F332" s="3">
         <v>0</v>
@@ -16179,16 +16182,16 @@
         <v>27762.346000000001</v>
       </c>
       <c r="J332" s="3">
-        <v>978568338</v>
+        <v>979646169</v>
       </c>
       <c r="K332" s="3">
-        <v>381492840</v>
+        <v>381628307</v>
       </c>
       <c r="L332" s="3">
-        <v>380714512</v>
+        <v>381285275</v>
       </c>
       <c r="M332" s="3">
-        <v>4947709202</v>
+        <v>4958776087</v>
       </c>
       <c r="N332" s="3">
         <v>737038203</v>
@@ -16202,46 +16205,93 @@
         <v>45504</v>
       </c>
       <c r="B333" s="3">
-        <v>7599507.9850000003</v>
+        <v>7599763.4850000003</v>
       </c>
       <c r="C333" s="3">
-        <v>2672980.0449999999</v>
+        <v>2673000.0449999999</v>
       </c>
       <c r="D333" s="3">
-        <v>3197943.94</v>
+        <v>3198179.44</v>
       </c>
       <c r="E333" s="3">
-        <v>7458312668</v>
+        <v>7457394292</v>
       </c>
       <c r="F333" s="3">
         <v>0</v>
       </c>
       <c r="G333" s="3">
-        <v>677055997</v>
+        <v>656055051</v>
       </c>
       <c r="H333" s="3">
-        <v>677055.99699999997</v>
+        <v>656055.05099999998</v>
       </c>
       <c r="I333" s="3">
         <v>37945.652999999998</v>
       </c>
       <c r="J333" s="3">
-        <v>885191760</v>
+        <v>887160093</v>
       </c>
       <c r="K333" s="3">
-        <v>388845483</v>
+        <v>390737342</v>
       </c>
       <c r="L333" s="3">
-        <v>311202110</v>
+        <v>311278419</v>
       </c>
       <c r="M333" s="3">
-        <v>4464041965</v>
+        <v>4465758689</v>
       </c>
       <c r="N333" s="3">
         <v>718030841</v>
       </c>
       <c r="O333" s="3">
-        <v>384284717</v>
+        <v>376524216</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15">
+      <c r="A334" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B334" s="3">
+        <v>7704052.2180000003</v>
+      </c>
+      <c r="C334" s="3">
+        <v>2791344.0350000001</v>
+      </c>
+      <c r="D334" s="3">
+        <v>3267419.1949999998</v>
+      </c>
+      <c r="E334" s="3">
+        <v>9370684020</v>
+      </c>
+      <c r="F334" s="3">
+        <v>0</v>
+      </c>
+      <c r="G334" s="3">
+        <v>872391626</v>
+      </c>
+      <c r="H334" s="3">
+        <v>872391.62600000005</v>
+      </c>
+      <c r="I334" s="3">
+        <v>0</v>
+      </c>
+      <c r="J334" s="3">
+        <v>931503820</v>
+      </c>
+      <c r="K334" s="3">
+        <v>406714430</v>
+      </c>
+      <c r="L334" s="3">
+        <v>319465442</v>
+      </c>
+      <c r="M334" s="3">
+        <v>5388498445</v>
+      </c>
+      <c r="N334" s="3">
+        <v>713418380</v>
+      </c>
+      <c r="O334" s="3">
+        <v>507750466</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/China fossil fuel imports from Russia.xlsx
+++ b/inst/extdata/China fossil fuel imports from Russia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4AEAD3-0E2D-4933-8898-74DF23919C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E7C509-9E0E-4A5A-BEA0-B6CA27671907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -255,10 +255,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -638,9 +638,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:15">

--- a/inst/extdata/China fossil fuel imports from Russia.xlsx
+++ b/inst/extdata/China fossil fuel imports from Russia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E7C509-9E0E-4A5A-BEA0-B6CA27671907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5416BE17-115A-4177-AEF8-CCC0CD86FC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -255,10 +255,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -638,9 +638,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:15">

--- a/inst/extdata/China fossil fuel imports from Russia.xlsx
+++ b/inst/extdata/China fossil fuel imports from Russia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4AEAD3-0E2D-4933-8898-74DF23919C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C47076-3043-4CB9-A0A0-2745F3C2147E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/China fossil fuel imports from Russia.xlsx
+++ b/inst/extdata/China fossil fuel imports from Russia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C47076-3043-4CB9-A0A0-2745F3C2147E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E71D70F-4099-4C05-9EE9-E528B00DFB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -255,10 +255,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -638,9 +638,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:15">

--- a/inst/extdata/China fossil fuel imports from Russia.xlsx
+++ b/inst/extdata/China fossil fuel imports from Russia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E71D70F-4099-4C05-9EE9-E528B00DFB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E37EC1E-4BE6-4971-9CC9-0B33E5EADB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -255,10 +255,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -638,9 +638,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -15970,13 +15970,13 @@
         <v>45351</v>
       </c>
       <c r="B328" s="3">
-        <v>5301585.2580000004</v>
+        <v>5302760.2580000004</v>
       </c>
       <c r="C328" s="3">
         <v>1927286.43</v>
       </c>
       <c r="D328" s="3">
-        <v>2298873.9300000002</v>
+        <v>2300048.9300000002</v>
       </c>
       <c r="E328" s="3">
         <v>9095464032</v>
@@ -16026,7 +16026,7 @@
         <v>2824260.821</v>
       </c>
       <c r="E329" s="3">
-        <v>10804951037</v>
+        <v>10804834459</v>
       </c>
       <c r="F329" s="3">
         <v>0</v>
@@ -16041,16 +16041,16 @@
         <v>33933.849000000002</v>
       </c>
       <c r="J329" s="3">
-        <v>878699109</v>
+        <v>878543642</v>
       </c>
       <c r="K329" s="3">
-        <v>398108769</v>
+        <v>398212450</v>
       </c>
       <c r="L329" s="3">
         <v>309221390</v>
       </c>
       <c r="M329" s="3">
-        <v>6516391605</v>
+        <v>6523287494</v>
       </c>
       <c r="N329" s="3">
         <v>668499959</v>
@@ -16073,7 +16073,7 @@
         <v>3924890.44</v>
       </c>
       <c r="E330" s="3">
-        <v>9258592043</v>
+        <v>9259637403</v>
       </c>
       <c r="F330" s="3">
         <v>0</v>
@@ -16088,16 +16088,16 @@
         <v>38641.328999999998</v>
       </c>
       <c r="J330" s="3">
-        <v>971910988</v>
+        <v>972032842</v>
       </c>
       <c r="K330" s="3">
-        <v>393219292</v>
+        <v>393155519</v>
       </c>
       <c r="L330" s="3">
         <v>397324006</v>
       </c>
       <c r="M330" s="3">
-        <v>5787799413</v>
+        <v>5792342390</v>
       </c>
       <c r="N330" s="3">
         <v>529846850</v>
@@ -16111,16 +16111,16 @@
         <v>45443</v>
       </c>
       <c r="B331" s="3">
-        <v>8278847.6540000001</v>
+        <v>8278850.6540000001</v>
       </c>
       <c r="C331" s="3">
         <v>2814273.449</v>
       </c>
       <c r="D331" s="3">
-        <v>3852107.8360000001</v>
+        <v>3852110.8360000001</v>
       </c>
       <c r="E331" s="3">
-        <v>8908590223</v>
+        <v>8907548348</v>
       </c>
       <c r="F331" s="3">
         <v>0</v>
@@ -16135,16 +16135,16 @@
         <v>35760.885999999999</v>
       </c>
       <c r="J331" s="3">
-        <v>951157441</v>
+        <v>951359526</v>
       </c>
       <c r="K331" s="3">
-        <v>393865554</v>
+        <v>394016892</v>
       </c>
       <c r="L331" s="3">
-        <v>369519973</v>
+        <v>369570720</v>
       </c>
       <c r="M331" s="3">
-        <v>5533024853</v>
+        <v>5537517130</v>
       </c>
       <c r="N331" s="3">
         <v>712991710</v>
@@ -16158,16 +16158,16 @@
         <v>45473</v>
       </c>
       <c r="B332" s="3">
-        <v>8549513.7819999997</v>
+        <v>8549541.7819999997</v>
       </c>
       <c r="C332" s="3">
         <v>2595725.5019999999</v>
       </c>
       <c r="D332" s="3">
-        <v>4068373.31</v>
+        <v>4068401.31</v>
       </c>
       <c r="E332" s="3">
-        <v>8430778217</v>
+        <v>8429997723</v>
       </c>
       <c r="F332" s="3">
         <v>0</v>
@@ -16182,16 +16182,16 @@
         <v>27762.346000000001</v>
       </c>
       <c r="J332" s="3">
-        <v>979646169</v>
+        <v>980828993</v>
       </c>
       <c r="K332" s="3">
-        <v>381628307</v>
+        <v>381764720</v>
       </c>
       <c r="L332" s="3">
-        <v>381285275</v>
+        <v>381230234</v>
       </c>
       <c r="M332" s="3">
-        <v>4958776087</v>
+        <v>4990577318</v>
       </c>
       <c r="N332" s="3">
         <v>737038203</v>
@@ -16205,16 +16205,16 @@
         <v>45504</v>
       </c>
       <c r="B333" s="3">
-        <v>7599763.4850000003</v>
+        <v>7599788.4850000003</v>
       </c>
       <c r="C333" s="3">
-        <v>2673000.0449999999</v>
+        <v>2688700.0449999999</v>
       </c>
       <c r="D333" s="3">
-        <v>3198179.44</v>
+        <v>3182501.44</v>
       </c>
       <c r="E333" s="3">
-        <v>7457394292</v>
+        <v>7456970929</v>
       </c>
       <c r="F333" s="3">
         <v>0</v>
@@ -16229,16 +16229,16 @@
         <v>37945.652999999998</v>
       </c>
       <c r="J333" s="3">
-        <v>887160093</v>
+        <v>887136747</v>
       </c>
       <c r="K333" s="3">
-        <v>390737342</v>
+        <v>392658401</v>
       </c>
       <c r="L333" s="3">
-        <v>311278419</v>
+        <v>309442950</v>
       </c>
       <c r="M333" s="3">
-        <v>4465758689</v>
+        <v>4466721801</v>
       </c>
       <c r="N333" s="3">
         <v>718030841</v>

--- a/inst/extdata/China fossil fuel imports from Russia.xlsx
+++ b/inst/extdata/China fossil fuel imports from Russia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E37EC1E-4BE6-4971-9CC9-0B33E5EADB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5F5514-EB1D-4436-8271-C96F8DF12E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
   <si>
     <t>Country</t>
   </si>
@@ -194,10 +194,7 @@
     <t>2024-08-23</t>
   </si>
   <si>
-    <t>2024-09-28</t>
-  </si>
-  <si>
-    <t>2024-09-27</t>
+    <t>2024-10-23</t>
   </si>
 </sst>
 </file>
@@ -618,7 +615,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O334"/>
+  <dimension ref="A1:O335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -933,7 +930,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>45</v>
@@ -957,7 +954,7 @@
         <v>45</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>45</v>
@@ -16252,46 +16249,93 @@
         <v>45535</v>
       </c>
       <c r="B334" s="3">
-        <v>7704052.2180000003</v>
+        <v>7704022.5180000002</v>
       </c>
       <c r="C334" s="3">
         <v>2791344.0350000001</v>
       </c>
       <c r="D334" s="3">
-        <v>3267419.1949999998</v>
+        <v>3267389.4950000001</v>
       </c>
       <c r="E334" s="3">
-        <v>9370684020</v>
+        <v>9370084676</v>
       </c>
       <c r="F334" s="3">
         <v>0</v>
       </c>
       <c r="G334" s="3">
-        <v>872391626</v>
+        <v>866336480</v>
       </c>
       <c r="H334" s="3">
-        <v>872391.62600000005</v>
+        <v>866336.48</v>
       </c>
       <c r="I334" s="3">
         <v>0</v>
       </c>
       <c r="J334" s="3">
-        <v>931503820</v>
+        <v>932390270</v>
       </c>
       <c r="K334" s="3">
-        <v>406714430</v>
+        <v>406935016</v>
       </c>
       <c r="L334" s="3">
-        <v>319465442</v>
+        <v>320129847</v>
       </c>
       <c r="M334" s="3">
-        <v>5388498445</v>
+        <v>5398837461</v>
       </c>
       <c r="N334" s="3">
         <v>713418380</v>
       </c>
       <c r="O334" s="3">
-        <v>507750466</v>
+        <v>508547578</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15">
+      <c r="A335" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B335" s="3">
+        <v>7378215.2699999996</v>
+      </c>
+      <c r="C335" s="3">
+        <v>2479904.77</v>
+      </c>
+      <c r="D335" s="3">
+        <v>3368345.32</v>
+      </c>
+      <c r="E335" s="3">
+        <v>8658329127</v>
+      </c>
+      <c r="F335" s="3">
+        <v>0</v>
+      </c>
+      <c r="G335" s="3">
+        <v>980007524</v>
+      </c>
+      <c r="H335" s="3">
+        <v>980007.52399999998</v>
+      </c>
+      <c r="I335" s="3">
+        <v>0</v>
+      </c>
+      <c r="J335" s="3">
+        <v>823681172</v>
+      </c>
+      <c r="K335" s="3">
+        <v>331212312</v>
+      </c>
+      <c r="L335" s="3">
+        <v>314583176</v>
+      </c>
+      <c r="M335" s="3">
+        <v>4650472105</v>
+      </c>
+      <c r="N335" s="3">
+        <v>726744455</v>
+      </c>
+      <c r="O335" s="3">
+        <v>610659423</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/China fossil fuel imports from Russia.xlsx
+++ b/inst/extdata/China fossil fuel imports from Russia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5F5514-EB1D-4436-8271-C96F8DF12E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E251004-C7B3-4E5F-91A0-60AA099F8124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2115" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Volume of Imports_Coal_Ru" sheetId="1" r:id="rId1"/>
@@ -191,10 +191,10 @@
     <t>2022-01-29</t>
   </si>
   <si>
-    <t>2024-08-23</t>
+    <t>2024-10-23</t>
   </si>
   <si>
-    <t>2024-10-23</t>
+    <t>2024-11-02</t>
   </si>
 </sst>
 </file>
@@ -617,24 +617,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O335"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -927,46 +929,46 @@
         <v>42</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="K8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -16082,7 +16084,7 @@
         <v>769190.87899999996</v>
       </c>
       <c r="I330" s="3">
-        <v>38641.328999999998</v>
+        <v>38661.108999999997</v>
       </c>
       <c r="J330" s="3">
         <v>972032842</v>
@@ -16129,7 +16131,7 @@
         <v>446329.19699999999</v>
       </c>
       <c r="I331" s="3">
-        <v>35760.885999999999</v>
+        <v>35794.336000000003</v>
       </c>
       <c r="J331" s="3">
         <v>951359526</v>
@@ -16176,7 +16178,7 @@
         <v>661230.54700000002</v>
       </c>
       <c r="I332" s="3">
-        <v>27762.346000000001</v>
+        <v>27742.346000000001</v>
       </c>
       <c r="J332" s="3">
         <v>980828993</v>
@@ -16270,7 +16272,7 @@
         <v>866336.48</v>
       </c>
       <c r="I334" s="3">
-        <v>0</v>
+        <v>43513.927000000003</v>
       </c>
       <c r="J334" s="3">
         <v>932390270</v>
@@ -16317,7 +16319,7 @@
         <v>980007.52399999998</v>
       </c>
       <c r="I335" s="3">
-        <v>0</v>
+        <v>36840.766000000003</v>
       </c>
       <c r="J335" s="3">
         <v>823681172</v>

--- a/inst/extdata/China fossil fuel imports from Russia.xlsx
+++ b/inst/extdata/China fossil fuel imports from Russia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E251004-C7B3-4E5F-91A0-60AA099F8124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E531B4DF-BFE0-4B6D-8B12-ECF52AE3F1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2115" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Volume of Imports_Coal_Ru" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="45">
   <si>
     <t>Country</t>
   </si>
@@ -191,10 +191,7 @@
     <t>2022-01-29</t>
   </si>
   <si>
-    <t>2024-10-23</t>
-  </si>
-  <si>
-    <t>2024-11-02</t>
+    <t>2024-11-23</t>
   </si>
 </sst>
 </file>
@@ -615,28 +612,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O335"/>
+  <dimension ref="A1:O336"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -950,7 +947,7 @@
         <v>44</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>44</v>
@@ -15946,10 +15943,10 @@
         <v>23716.192999999999</v>
       </c>
       <c r="J327" s="3">
-        <v>834280990</v>
+        <v>833269235</v>
       </c>
       <c r="K327" s="3">
-        <v>386909505</v>
+        <v>385897750</v>
       </c>
       <c r="L327" s="3">
         <v>313165066</v>
@@ -15993,13 +15990,13 @@
         <v>27067.526999999998</v>
       </c>
       <c r="J328" s="3">
-        <v>704814128</v>
+        <v>705065495</v>
       </c>
       <c r="K328" s="3">
         <v>334983663</v>
       </c>
       <c r="L328" s="3">
-        <v>230709405</v>
+        <v>230898023</v>
       </c>
       <c r="M328" s="3">
         <v>5299044682</v>
@@ -16049,7 +16046,7 @@
         <v>309221390</v>
       </c>
       <c r="M329" s="3">
-        <v>6523287494</v>
+        <v>6524459403</v>
       </c>
       <c r="N329" s="3">
         <v>668499959</v>
@@ -16063,7 +16060,7 @@
         <v>45412</v>
       </c>
       <c r="B330" s="3">
-        <v>8310547.0669999998</v>
+        <v>8310544.0669999998</v>
       </c>
       <c r="C330" s="3">
         <v>2892107.6230000001</v>
@@ -16072,7 +16069,7 @@
         <v>3924890.44</v>
       </c>
       <c r="E330" s="3">
-        <v>9259637403</v>
+        <v>9259415053</v>
       </c>
       <c r="F330" s="3">
         <v>0</v>
@@ -16087,16 +16084,16 @@
         <v>38661.108999999997</v>
       </c>
       <c r="J330" s="3">
-        <v>972032842</v>
+        <v>974024612</v>
       </c>
       <c r="K330" s="3">
-        <v>393155519</v>
+        <v>395482985</v>
       </c>
       <c r="L330" s="3">
         <v>397324006</v>
       </c>
       <c r="M330" s="3">
-        <v>5792342390</v>
+        <v>5792565057</v>
       </c>
       <c r="N330" s="3">
         <v>529846850</v>
@@ -16113,13 +16110,13 @@
         <v>8278850.6540000001</v>
       </c>
       <c r="C331" s="3">
-        <v>2814273.449</v>
+        <v>2722207.449</v>
       </c>
       <c r="D331" s="3">
-        <v>3852110.8360000001</v>
+        <v>3944176.8360000001</v>
       </c>
       <c r="E331" s="3">
-        <v>8907548348</v>
+        <v>8907597028</v>
       </c>
       <c r="F331" s="3">
         <v>0</v>
@@ -16134,16 +16131,16 @@
         <v>35794.336000000003</v>
       </c>
       <c r="J331" s="3">
-        <v>951359526</v>
+        <v>952062188</v>
       </c>
       <c r="K331" s="3">
-        <v>394016892</v>
+        <v>385051559</v>
       </c>
       <c r="L331" s="3">
-        <v>369570720</v>
+        <v>379549633</v>
       </c>
       <c r="M331" s="3">
-        <v>5537517130</v>
+        <v>5540326262</v>
       </c>
       <c r="N331" s="3">
         <v>712991710</v>
@@ -16157,16 +16154,16 @@
         <v>45473</v>
       </c>
       <c r="B332" s="3">
-        <v>8549541.7819999997</v>
+        <v>8549543.7320000008</v>
       </c>
       <c r="C332" s="3">
         <v>2595725.5019999999</v>
       </c>
       <c r="D332" s="3">
-        <v>4068401.31</v>
+        <v>4068403.26</v>
       </c>
       <c r="E332" s="3">
-        <v>8429997723</v>
+        <v>8429911209</v>
       </c>
       <c r="F332" s="3">
         <v>0</v>
@@ -16181,16 +16178,16 @@
         <v>27742.346000000001</v>
       </c>
       <c r="J332" s="3">
-        <v>980828993</v>
+        <v>980833804</v>
       </c>
       <c r="K332" s="3">
-        <v>381764720</v>
+        <v>381593669</v>
       </c>
       <c r="L332" s="3">
-        <v>381230234</v>
+        <v>381230636</v>
       </c>
       <c r="M332" s="3">
-        <v>4990577318</v>
+        <v>4991234743</v>
       </c>
       <c r="N332" s="3">
         <v>737038203</v>
@@ -16207,13 +16204,13 @@
         <v>7599788.4850000003</v>
       </c>
       <c r="C333" s="3">
-        <v>2688700.0449999999</v>
+        <v>2670000.0449999999</v>
       </c>
       <c r="D333" s="3">
-        <v>3182501.44</v>
+        <v>3201201.44</v>
       </c>
       <c r="E333" s="3">
-        <v>7456970929</v>
+        <v>7456718910</v>
       </c>
       <c r="F333" s="3">
         <v>0</v>
@@ -16228,16 +16225,16 @@
         <v>37945.652999999998</v>
       </c>
       <c r="J333" s="3">
-        <v>887136747</v>
+        <v>887901830</v>
       </c>
       <c r="K333" s="3">
-        <v>392658401</v>
+        <v>391224148</v>
       </c>
       <c r="L333" s="3">
-        <v>309442950</v>
+        <v>311724808</v>
       </c>
       <c r="M333" s="3">
-        <v>4466721801</v>
+        <v>4467335739</v>
       </c>
       <c r="N333" s="3">
         <v>718030841</v>
@@ -16251,16 +16248,16 @@
         <v>45535</v>
       </c>
       <c r="B334" s="3">
-        <v>7704022.5180000002</v>
+        <v>7704025.5180000002</v>
       </c>
       <c r="C334" s="3">
         <v>2791344.0350000001</v>
       </c>
       <c r="D334" s="3">
-        <v>3267389.4950000001</v>
+        <v>3267392.4950000001</v>
       </c>
       <c r="E334" s="3">
-        <v>9370084676</v>
+        <v>9370205821</v>
       </c>
       <c r="F334" s="3">
         <v>0</v>
@@ -16275,16 +16272,16 @@
         <v>43513.927000000003</v>
       </c>
       <c r="J334" s="3">
-        <v>932390270</v>
+        <v>932443661</v>
       </c>
       <c r="K334" s="3">
-        <v>406935016</v>
+        <v>407477110</v>
       </c>
       <c r="L334" s="3">
-        <v>320129847</v>
+        <v>319635111</v>
       </c>
       <c r="M334" s="3">
-        <v>5398837461</v>
+        <v>5420987816</v>
       </c>
       <c r="N334" s="3">
         <v>713418380</v>
@@ -16307,37 +16304,84 @@
         <v>3368345.32</v>
       </c>
       <c r="E335" s="3">
-        <v>8658329127</v>
+        <v>8657720344</v>
       </c>
       <c r="F335" s="3">
         <v>0</v>
       </c>
       <c r="G335" s="3">
-        <v>980007524</v>
+        <v>957313532</v>
       </c>
       <c r="H335" s="3">
-        <v>980007.52399999998</v>
+        <v>957313.53200000001</v>
       </c>
       <c r="I335" s="3">
         <v>36840.766000000003</v>
       </c>
       <c r="J335" s="3">
-        <v>823681172</v>
+        <v>823842168</v>
       </c>
       <c r="K335" s="3">
-        <v>331212312</v>
+        <v>331229076</v>
       </c>
       <c r="L335" s="3">
-        <v>314583176</v>
+        <v>314727408</v>
       </c>
       <c r="M335" s="3">
-        <v>4650472105</v>
+        <v>4661946757</v>
       </c>
       <c r="N335" s="3">
         <v>726744455</v>
       </c>
       <c r="O335" s="3">
-        <v>610659423</v>
+        <v>601921813</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15">
+      <c r="A336" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B336" s="3">
+        <v>7620934.8329999996</v>
+      </c>
+      <c r="C336" s="3">
+        <v>2561527.7549999999</v>
+      </c>
+      <c r="D336" s="3">
+        <v>3384114.9279999998</v>
+      </c>
+      <c r="E336" s="3">
+        <v>9826986379</v>
+      </c>
+      <c r="F336" s="3">
+        <v>0</v>
+      </c>
+      <c r="G336" s="3">
+        <v>751486830</v>
+      </c>
+      <c r="H336" s="3">
+        <v>751486.83</v>
+      </c>
+      <c r="I336" s="3">
+        <v>40647.735999999997</v>
+      </c>
+      <c r="J336" s="3">
+        <v>851215836</v>
+      </c>
+      <c r="K336" s="3">
+        <v>334400214</v>
+      </c>
+      <c r="L336" s="3">
+        <v>339696457</v>
+      </c>
+      <c r="M336" s="3">
+        <v>5239886963</v>
+      </c>
+      <c r="N336" s="3">
+        <v>535066432</v>
+      </c>
+      <c r="O336" s="3">
+        <v>465369654</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/China fossil fuel imports from Russia.xlsx
+++ b/inst/extdata/China fossil fuel imports from Russia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E531B4DF-BFE0-4B6D-8B12-ECF52AE3F1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711F6804-157F-4F1F-83EC-D6951D21F888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Volume of Imports_Coal_Ru" sheetId="1" r:id="rId1"/>
@@ -614,26 +614,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/China fossil fuel imports from Russia.xlsx
+++ b/inst/extdata/China fossil fuel imports from Russia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711F6804-157F-4F1F-83EC-D6951D21F888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634D03D2-F969-403A-A4AF-368198B3AECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Volume of Imports_Coal_Ru" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="47">
   <si>
     <t>Country</t>
   </si>
@@ -191,7 +191,13 @@
     <t>2022-01-29</t>
   </si>
   <si>
-    <t>2024-11-23</t>
+    <t>2024-12-24</t>
+  </si>
+  <si>
+    <t>2024-12-23</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
   </si>
 </sst>
 </file>
@@ -612,28 +618,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O336"/>
+  <dimension ref="A1:O337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -944,10 +950,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>44</v>
@@ -15922,10 +15928,10 @@
         <v>6092430.6330000004</v>
       </c>
       <c r="C327" s="3">
-        <v>2134744.3629999999</v>
+        <v>2130654.6630000002</v>
       </c>
       <c r="D327" s="3">
-        <v>2936094.125</v>
+        <v>2940183.8250000002</v>
       </c>
       <c r="E327" s="3">
         <v>8618398217</v>
@@ -15940,16 +15946,16 @@
         <v>735663.14899999998</v>
       </c>
       <c r="I327" s="3">
-        <v>23716.192999999999</v>
+        <v>23894.582999999999</v>
       </c>
       <c r="J327" s="3">
         <v>833269235</v>
       </c>
       <c r="K327" s="3">
-        <v>385897750</v>
+        <v>385506467</v>
       </c>
       <c r="L327" s="3">
-        <v>313165066</v>
+        <v>313556349</v>
       </c>
       <c r="M327" s="3">
         <v>4856251759</v>
@@ -15987,7 +15993,7 @@
         <v>455250.652</v>
       </c>
       <c r="I328" s="3">
-        <v>27067.526999999998</v>
+        <v>27127.526999999998</v>
       </c>
       <c r="J328" s="3">
         <v>705065495</v>
@@ -16034,13 +16040,13 @@
         <v>445434.158</v>
       </c>
       <c r="I329" s="3">
-        <v>33933.849000000002</v>
+        <v>34113.849000000002</v>
       </c>
       <c r="J329" s="3">
-        <v>878543642</v>
+        <v>878399841</v>
       </c>
       <c r="K329" s="3">
-        <v>398212450</v>
+        <v>398080113</v>
       </c>
       <c r="L329" s="3">
         <v>309221390</v>
@@ -16081,19 +16087,19 @@
         <v>769190.87899999996</v>
       </c>
       <c r="I330" s="3">
-        <v>38661.108999999997</v>
+        <v>38921.949000000001</v>
       </c>
       <c r="J330" s="3">
-        <v>974024612</v>
+        <v>974267381</v>
       </c>
       <c r="K330" s="3">
-        <v>395482985</v>
+        <v>395508686</v>
       </c>
       <c r="L330" s="3">
         <v>397324006</v>
       </c>
       <c r="M330" s="3">
-        <v>5792565057</v>
+        <v>5792765057</v>
       </c>
       <c r="N330" s="3">
         <v>529846850</v>
@@ -16107,16 +16113,16 @@
         <v>45443</v>
       </c>
       <c r="B331" s="3">
-        <v>8278850.6540000001</v>
+        <v>8277785.6540000001</v>
       </c>
       <c r="C331" s="3">
-        <v>2722207.449</v>
+        <v>2742007.449</v>
       </c>
       <c r="D331" s="3">
-        <v>3944176.8360000001</v>
+        <v>3924376.8360000001</v>
       </c>
       <c r="E331" s="3">
-        <v>8907597028</v>
+        <v>8907556586</v>
       </c>
       <c r="F331" s="3">
         <v>0</v>
@@ -16128,19 +16134,19 @@
         <v>446329.19699999999</v>
       </c>
       <c r="I331" s="3">
-        <v>35794.336000000003</v>
+        <v>36288.046000000002</v>
       </c>
       <c r="J331" s="3">
-        <v>952062188</v>
+        <v>953997156</v>
       </c>
       <c r="K331" s="3">
-        <v>385051559</v>
+        <v>387174831</v>
       </c>
       <c r="L331" s="3">
-        <v>379549633</v>
+        <v>377209934</v>
       </c>
       <c r="M331" s="3">
-        <v>5540326262</v>
+        <v>5541151994</v>
       </c>
       <c r="N331" s="3">
         <v>712991710</v>
@@ -16154,16 +16160,16 @@
         <v>45473</v>
       </c>
       <c r="B332" s="3">
-        <v>8549543.7320000008</v>
+        <v>8549531.7320000008</v>
       </c>
       <c r="C332" s="3">
-        <v>2595725.5019999999</v>
+        <v>2595713.5019999999</v>
       </c>
       <c r="D332" s="3">
         <v>4068403.26</v>
       </c>
       <c r="E332" s="3">
-        <v>8429911209</v>
+        <v>8430213620</v>
       </c>
       <c r="F332" s="3">
         <v>0</v>
@@ -16175,19 +16181,19 @@
         <v>661230.54700000002</v>
       </c>
       <c r="I332" s="3">
-        <v>27742.346000000001</v>
+        <v>28603.766</v>
       </c>
       <c r="J332" s="3">
-        <v>980833804</v>
+        <v>981123340</v>
       </c>
       <c r="K332" s="3">
-        <v>381593669</v>
+        <v>381866707</v>
       </c>
       <c r="L332" s="3">
-        <v>381230636</v>
+        <v>381247134</v>
       </c>
       <c r="M332" s="3">
-        <v>4991234743</v>
+        <v>4994193328</v>
       </c>
       <c r="N332" s="3">
         <v>737038203</v>
@@ -16204,10 +16210,10 @@
         <v>7599788.4850000003</v>
       </c>
       <c r="C333" s="3">
-        <v>2670000.0449999999</v>
+        <v>2688700.0449999999</v>
       </c>
       <c r="D333" s="3">
-        <v>3201201.44</v>
+        <v>3182501.44</v>
       </c>
       <c r="E333" s="3">
         <v>7456718910</v>
@@ -16222,16 +16228,16 @@
         <v>656055.05099999998</v>
       </c>
       <c r="I333" s="3">
-        <v>37945.652999999998</v>
+        <v>38824.463000000003</v>
       </c>
       <c r="J333" s="3">
-        <v>887901830</v>
+        <v>888370384</v>
       </c>
       <c r="K333" s="3">
-        <v>391224148</v>
+        <v>393539187</v>
       </c>
       <c r="L333" s="3">
-        <v>311724808</v>
+        <v>309778723</v>
       </c>
       <c r="M333" s="3">
         <v>4467335739</v>
@@ -16257,22 +16263,22 @@
         <v>3267392.4950000001</v>
       </c>
       <c r="E334" s="3">
-        <v>9370205821</v>
+        <v>9369452574</v>
       </c>
       <c r="F334" s="3">
         <v>0</v>
       </c>
       <c r="G334" s="3">
-        <v>866336480</v>
+        <v>861359634</v>
       </c>
       <c r="H334" s="3">
-        <v>866336.48</v>
+        <v>861359.63399999996</v>
       </c>
       <c r="I334" s="3">
-        <v>43513.927000000003</v>
+        <v>44040.927000000003</v>
       </c>
       <c r="J334" s="3">
-        <v>932443661</v>
+        <v>932094625</v>
       </c>
       <c r="K334" s="3">
         <v>407477110</v>
@@ -16281,13 +16287,13 @@
         <v>319635111</v>
       </c>
       <c r="M334" s="3">
-        <v>5420987816</v>
+        <v>5420104746</v>
       </c>
       <c r="N334" s="3">
         <v>713418380</v>
       </c>
       <c r="O334" s="3">
-        <v>508547578</v>
+        <v>505382652</v>
       </c>
     </row>
     <row r="335" spans="1:15">
@@ -16304,7 +16310,7 @@
         <v>3368345.32</v>
       </c>
       <c r="E335" s="3">
-        <v>8657720344</v>
+        <v>8657984945</v>
       </c>
       <c r="F335" s="3">
         <v>0</v>
@@ -16316,19 +16322,19 @@
         <v>957313.53200000001</v>
       </c>
       <c r="I335" s="3">
-        <v>36840.766000000003</v>
+        <v>37270.766000000003</v>
       </c>
       <c r="J335" s="3">
-        <v>823842168</v>
+        <v>823698125</v>
       </c>
       <c r="K335" s="3">
-        <v>331229076</v>
+        <v>332082790</v>
       </c>
       <c r="L335" s="3">
-        <v>314727408</v>
+        <v>315573330</v>
       </c>
       <c r="M335" s="3">
-        <v>4661946757</v>
+        <v>4662217667</v>
       </c>
       <c r="N335" s="3">
         <v>726744455</v>
@@ -16342,46 +16348,93 @@
         <v>45596</v>
       </c>
       <c r="B336" s="3">
-        <v>7620934.8329999996</v>
+        <v>7620982.733</v>
       </c>
       <c r="C336" s="3">
         <v>2561527.7549999999</v>
       </c>
       <c r="D336" s="3">
-        <v>3384114.9279999998</v>
+        <v>3435257.8280000002</v>
       </c>
       <c r="E336" s="3">
-        <v>9826986379</v>
+        <v>9826379965</v>
       </c>
       <c r="F336" s="3">
         <v>0</v>
       </c>
       <c r="G336" s="3">
-        <v>751486830</v>
+        <v>746483001</v>
       </c>
       <c r="H336" s="3">
-        <v>751486.83</v>
+        <v>746483.00100000005</v>
       </c>
       <c r="I336" s="3">
         <v>40647.735999999997</v>
       </c>
       <c r="J336" s="3">
-        <v>851215836</v>
+        <v>854113930</v>
       </c>
       <c r="K336" s="3">
-        <v>334400214</v>
+        <v>335734218</v>
       </c>
       <c r="L336" s="3">
-        <v>339696457</v>
+        <v>345658728</v>
       </c>
       <c r="M336" s="3">
-        <v>5239886963</v>
+        <v>5261103222</v>
       </c>
       <c r="N336" s="3">
         <v>535066432</v>
       </c>
       <c r="O336" s="3">
-        <v>465369654</v>
+        <v>468379548</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15">
+      <c r="A337" s="2">
+        <v>45626</v>
+      </c>
+      <c r="B337" s="3">
+        <v>7906800.6730000004</v>
+      </c>
+      <c r="C337" s="3">
+        <v>2556647.9500000002</v>
+      </c>
+      <c r="D337" s="3">
+        <v>3458459.73</v>
+      </c>
+      <c r="E337" s="3">
+        <v>8642894719</v>
+      </c>
+      <c r="F337" s="3">
+        <v>0</v>
+      </c>
+      <c r="G337" s="3">
+        <v>678515636</v>
+      </c>
+      <c r="H337" s="3">
+        <v>678515.63600000006</v>
+      </c>
+      <c r="I337" s="3">
+        <v>30576.947</v>
+      </c>
+      <c r="J337" s="3">
+        <v>896624392</v>
+      </c>
+      <c r="K337" s="3">
+        <v>335600171</v>
+      </c>
+      <c r="L337" s="3">
+        <v>350609382</v>
+      </c>
+      <c r="M337" s="3">
+        <v>4613758696</v>
+      </c>
+      <c r="N337" s="3">
+        <v>687686925</v>
+      </c>
+      <c r="O337" s="3">
+        <v>427771890</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/China fossil fuel imports from Russia.xlsx
+++ b/inst/extdata/China fossil fuel imports from Russia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634D03D2-F969-403A-A4AF-368198B3AECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C8EE53-E33B-4FFE-9FEF-5FA2B0AB8166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Volume of Imports_Coal_Ru" sheetId="1" r:id="rId1"/>
@@ -620,26 +620,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O337"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/China fossil fuel imports from Russia.xlsx
+++ b/inst/extdata/China fossil fuel imports from Russia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C8EE53-E33B-4FFE-9FEF-5FA2B0AB8166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F9DBA5-9E78-44A1-80D0-92C8E32D0319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Volume of Imports_Coal_Ru" sheetId="1" r:id="rId1"/>
@@ -624,22 +624,22 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -15949,7 +15949,7 @@
         <v>23894.582999999999</v>
       </c>
       <c r="J327" s="3">
-        <v>833269235</v>
+        <v>833334046</v>
       </c>
       <c r="K327" s="3">
         <v>385506467</v>
@@ -15996,7 +15996,7 @@
         <v>27127.526999999998</v>
       </c>
       <c r="J328" s="3">
-        <v>705065495</v>
+        <v>705084448</v>
       </c>
       <c r="K328" s="3">
         <v>334983663</v>
@@ -16049,7 +16049,7 @@
         <v>398080113</v>
       </c>
       <c r="L329" s="3">
-        <v>309221390</v>
+        <v>308054418</v>
       </c>
       <c r="M329" s="3">
         <v>6524459403</v>
@@ -16090,7 +16090,7 @@
         <v>38921.949000000001</v>
       </c>
       <c r="J330" s="3">
-        <v>974267381</v>
+        <v>974085464</v>
       </c>
       <c r="K330" s="3">
         <v>395508686</v>
@@ -16113,10 +16113,10 @@
         <v>45443</v>
       </c>
       <c r="B331" s="3">
-        <v>8277785.6540000001</v>
+        <v>8277813.6540000001</v>
       </c>
       <c r="C331" s="3">
-        <v>2742007.449</v>
+        <v>2742035.449</v>
       </c>
       <c r="D331" s="3">
         <v>3924376.8360000001</v>
@@ -16137,7 +16137,7 @@
         <v>36288.046000000002</v>
       </c>
       <c r="J331" s="3">
-        <v>953997156</v>
+        <v>954047198</v>
       </c>
       <c r="K331" s="3">
         <v>387174831</v>
@@ -16169,7 +16169,7 @@
         <v>4068403.26</v>
       </c>
       <c r="E332" s="3">
-        <v>8430213620</v>
+        <v>8430158796</v>
       </c>
       <c r="F332" s="3">
         <v>0</v>
@@ -16187,13 +16187,13 @@
         <v>981123340</v>
       </c>
       <c r="K332" s="3">
-        <v>381866707</v>
+        <v>381808827</v>
       </c>
       <c r="L332" s="3">
         <v>381247134</v>
       </c>
       <c r="M332" s="3">
-        <v>4994193328</v>
+        <v>4997872912</v>
       </c>
       <c r="N332" s="3">
         <v>737038203</v>
@@ -16210,10 +16210,10 @@
         <v>7599788.4850000003</v>
       </c>
       <c r="C333" s="3">
-        <v>2688700.0449999999</v>
+        <v>2670000.0449999999</v>
       </c>
       <c r="D333" s="3">
-        <v>3182501.44</v>
+        <v>3201201.44</v>
       </c>
       <c r="E333" s="3">
         <v>7456718910</v>
@@ -16234,10 +16234,10 @@
         <v>888370384</v>
       </c>
       <c r="K333" s="3">
-        <v>393539187</v>
+        <v>391310864</v>
       </c>
       <c r="L333" s="3">
-        <v>309778723</v>
+        <v>312219610</v>
       </c>
       <c r="M333" s="3">
         <v>4467335739</v>
@@ -16254,7 +16254,7 @@
         <v>45535</v>
       </c>
       <c r="B334" s="3">
-        <v>7704025.5180000002</v>
+        <v>7704071.5180000002</v>
       </c>
       <c r="C334" s="3">
         <v>2791344.0350000001</v>
@@ -16263,7 +16263,7 @@
         <v>3267392.4950000001</v>
       </c>
       <c r="E334" s="3">
-        <v>9369452574</v>
+        <v>9369181889</v>
       </c>
       <c r="F334" s="3">
         <v>0</v>
@@ -16278,22 +16278,22 @@
         <v>44040.927000000003</v>
       </c>
       <c r="J334" s="3">
-        <v>932094625</v>
+        <v>930452642</v>
       </c>
       <c r="K334" s="3">
-        <v>407477110</v>
+        <v>407504271</v>
       </c>
       <c r="L334" s="3">
         <v>319635111</v>
       </c>
       <c r="M334" s="3">
-        <v>5420104746</v>
+        <v>5421521696</v>
       </c>
       <c r="N334" s="3">
         <v>713418380</v>
       </c>
       <c r="O334" s="3">
-        <v>505382652</v>
+        <v>505382651</v>
       </c>
     </row>
     <row r="335" spans="1:15">
@@ -16301,7 +16301,7 @@
         <v>45565</v>
       </c>
       <c r="B335" s="3">
-        <v>7378215.2699999996</v>
+        <v>7378910.8899999997</v>
       </c>
       <c r="C335" s="3">
         <v>2479904.77</v>
@@ -16310,7 +16310,7 @@
         <v>3368345.32</v>
       </c>
       <c r="E335" s="3">
-        <v>8657984945</v>
+        <v>8657263089</v>
       </c>
       <c r="F335" s="3">
         <v>0</v>
@@ -16325,16 +16325,16 @@
         <v>37270.766000000003</v>
       </c>
       <c r="J335" s="3">
-        <v>823698125</v>
+        <v>824912654</v>
       </c>
       <c r="K335" s="3">
-        <v>332082790</v>
+        <v>332891133</v>
       </c>
       <c r="L335" s="3">
-        <v>315573330</v>
+        <v>315960022</v>
       </c>
       <c r="M335" s="3">
-        <v>4662217667</v>
+        <v>4669393602</v>
       </c>
       <c r="N335" s="3">
         <v>726744455</v>
@@ -16357,7 +16357,7 @@
         <v>3435257.8280000002</v>
       </c>
       <c r="E336" s="3">
-        <v>9826379965</v>
+        <v>9826046444</v>
       </c>
       <c r="F336" s="3">
         <v>0</v>
@@ -16381,7 +16381,7 @@
         <v>345658728</v>
       </c>
       <c r="M336" s="3">
-        <v>5261103222</v>
+        <v>5261417333</v>
       </c>
       <c r="N336" s="3">
         <v>535066432</v>

--- a/inst/extdata/China fossil fuel imports from Russia.xlsx
+++ b/inst/extdata/China fossil fuel imports from Russia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F9DBA5-9E78-44A1-80D0-92C8E32D0319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACC5039-3527-4E2E-B90E-E48F52D01F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="45">
   <si>
     <t>Country</t>
   </si>
@@ -191,13 +191,7 @@
     <t>2022-01-29</t>
   </si>
   <si>
-    <t>2024-12-24</t>
-  </si>
-  <si>
-    <t>2024-12-23</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
+    <t>2025-01-25</t>
   </si>
 </sst>
 </file>
@@ -618,7 +612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O337"/>
+  <dimension ref="A1:O338"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
@@ -950,10 +944,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>44</v>
@@ -16043,7 +16037,7 @@
         <v>34113.849000000002</v>
       </c>
       <c r="J329" s="3">
-        <v>878399841</v>
+        <v>877236703</v>
       </c>
       <c r="K329" s="3">
         <v>398080113</v>
@@ -16184,7 +16178,7 @@
         <v>28603.766</v>
       </c>
       <c r="J332" s="3">
-        <v>981123340</v>
+        <v>981107149</v>
       </c>
       <c r="K332" s="3">
         <v>381808827</v>
@@ -16207,7 +16201,7 @@
         <v>45504</v>
       </c>
       <c r="B333" s="3">
-        <v>7599788.4850000003</v>
+        <v>7599790.4850000003</v>
       </c>
       <c r="C333" s="3">
         <v>2670000.0449999999</v>
@@ -16216,7 +16210,7 @@
         <v>3201201.44</v>
       </c>
       <c r="E333" s="3">
-        <v>7456718910</v>
+        <v>7456718320</v>
       </c>
       <c r="F333" s="3">
         <v>0</v>
@@ -16231,7 +16225,7 @@
         <v>38824.463000000003</v>
       </c>
       <c r="J333" s="3">
-        <v>888370384</v>
+        <v>888657445</v>
       </c>
       <c r="K333" s="3">
         <v>391310864</v>
@@ -16240,7 +16234,7 @@
         <v>312219610</v>
       </c>
       <c r="M333" s="3">
-        <v>4467335739</v>
+        <v>4467901295</v>
       </c>
       <c r="N333" s="3">
         <v>718030841</v>
@@ -16284,7 +16278,7 @@
         <v>407504271</v>
       </c>
       <c r="L334" s="3">
-        <v>319635111</v>
+        <v>318447928</v>
       </c>
       <c r="M334" s="3">
         <v>5421521696</v>
@@ -16354,7 +16348,7 @@
         <v>2561527.7549999999</v>
       </c>
       <c r="D336" s="3">
-        <v>3435257.8280000002</v>
+        <v>3457357.8280000002</v>
       </c>
       <c r="E336" s="3">
         <v>9826046444</v>
@@ -16363,22 +16357,22 @@
         <v>0</v>
       </c>
       <c r="G336" s="3">
-        <v>746483001</v>
+        <v>736273616</v>
       </c>
       <c r="H336" s="3">
-        <v>746483.00100000005</v>
+        <v>736273.61600000004</v>
       </c>
       <c r="I336" s="3">
         <v>40647.735999999997</v>
       </c>
       <c r="J336" s="3">
-        <v>854113930</v>
+        <v>854975570</v>
       </c>
       <c r="K336" s="3">
-        <v>335734218</v>
+        <v>336332583</v>
       </c>
       <c r="L336" s="3">
-        <v>345658728</v>
+        <v>348946073</v>
       </c>
       <c r="M336" s="3">
         <v>5261417333</v>
@@ -16387,7 +16381,7 @@
         <v>535066432</v>
       </c>
       <c r="O336" s="3">
-        <v>468379548</v>
+        <v>468527249</v>
       </c>
     </row>
     <row r="337" spans="1:15">
@@ -16395,7 +16389,7 @@
         <v>45626</v>
       </c>
       <c r="B337" s="3">
-        <v>7906800.6730000004</v>
+        <v>7906731.5729999999</v>
       </c>
       <c r="C337" s="3">
         <v>2556647.9500000002</v>
@@ -16404,37 +16398,84 @@
         <v>3458459.73</v>
       </c>
       <c r="E337" s="3">
-        <v>8642894719</v>
+        <v>8640681358</v>
       </c>
       <c r="F337" s="3">
         <v>0</v>
       </c>
       <c r="G337" s="3">
-        <v>678515636</v>
+        <v>671377132</v>
       </c>
       <c r="H337" s="3">
-        <v>678515.63600000006</v>
+        <v>671377.13199999998</v>
       </c>
       <c r="I337" s="3">
         <v>30576.947</v>
       </c>
       <c r="J337" s="3">
-        <v>896624392</v>
+        <v>898106887</v>
       </c>
       <c r="K337" s="3">
-        <v>335600171</v>
+        <v>335734196</v>
       </c>
       <c r="L337" s="3">
-        <v>350609382</v>
+        <v>350964511</v>
       </c>
       <c r="M337" s="3">
-        <v>4613758696</v>
+        <v>4634843350</v>
       </c>
       <c r="N337" s="3">
         <v>687686925</v>
       </c>
       <c r="O337" s="3">
-        <v>427771890</v>
+        <v>423501229</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15">
+      <c r="A338" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B338" s="3">
+        <v>6890854.9890000001</v>
+      </c>
+      <c r="C338" s="3">
+        <v>2320605.307</v>
+      </c>
+      <c r="D338" s="3">
+        <v>2504642.9500000002</v>
+      </c>
+      <c r="E338" s="3">
+        <v>9405613193</v>
+      </c>
+      <c r="F338" s="3">
+        <v>0</v>
+      </c>
+      <c r="G338" s="3">
+        <v>913721892</v>
+      </c>
+      <c r="H338" s="3">
+        <v>913721.89199999999</v>
+      </c>
+      <c r="I338" s="3">
+        <v>42835.95</v>
+      </c>
+      <c r="J338" s="3">
+        <v>763659113</v>
+      </c>
+      <c r="K338" s="3">
+        <v>297004292</v>
+      </c>
+      <c r="L338" s="3">
+        <v>242595817</v>
+      </c>
+      <c r="M338" s="3">
+        <v>4959214857</v>
+      </c>
+      <c r="N338" s="3">
+        <v>684419827</v>
+      </c>
+      <c r="O338" s="3">
+        <v>556571789</v>
       </c>
     </row>
   </sheetData>
